--- a/NFLX.xlsx
+++ b/NFLX.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_Investing/stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEC9DD7-8C74-D840-9B4A-6AB998D0D804}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700CA32D-4154-5A4C-B1BF-C0A98EC4F352}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15560" yWindow="460" windowWidth="20280" windowHeight="20320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="107">
   <si>
     <t>Q117</t>
   </si>
@@ -358,9 +358,6 @@
   </si>
   <si>
     <t>Streaming</t>
-  </si>
-  <si>
-    <t>08/05/2020</t>
   </si>
 </sst>
 </file>
@@ -987,7 +984,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1009,10 +1006,10 @@
         <v>64</v>
       </c>
       <c r="C2" s="27">
-        <v>435.55</v>
-      </c>
-      <c r="D2" s="53" t="s">
-        <v>107</v>
+        <v>579.84</v>
+      </c>
+      <c r="D2" s="53">
+        <v>43852</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>37</v>
@@ -1056,7 +1053,7 @@
       </c>
       <c r="C4" s="31">
         <f>C2*C3</f>
-        <v>197083.76170000003</v>
+        <v>262374.12096000003</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>39</v>
@@ -1105,7 +1102,7 @@
       </c>
       <c r="C6" s="31">
         <f>C4-C5</f>
-        <v>206601.76170000003</v>
+        <v>271892.12096000003</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>41</v>
@@ -1125,7 +1122,7 @@
       </c>
       <c r="C7" s="34">
         <f>C6/C3</f>
-        <v>456.58453305458198</v>
+        <v>600.874533054582</v>
       </c>
       <c r="E7" s="35" t="s">
         <v>67</v>
@@ -1136,7 +1133,7 @@
       </c>
       <c r="G7" s="48">
         <f>F7/C2-1</f>
-        <v>1.3721836985714195</v>
+        <v>0.78187881124582925</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
@@ -2432,7 +2429,7 @@
         <v>45378.139942150192</v>
       </c>
       <c r="V28" s="40">
-        <f t="shared" ref="S28:CD28" si="31">U28*(1+$F$2)</f>
+        <f t="shared" ref="V28:CD28" si="31">U28*(1+$F$2)</f>
         <v>45151.249242439444</v>
       </c>
       <c r="W28" s="40">
@@ -4024,11 +4021,11 @@
       </c>
       <c r="D57" s="48">
         <f>(D46/D30)/$C$2</f>
-        <v>5.3297906551931375E-2</v>
+        <v>4.0035015174347592E-2</v>
       </c>
       <c r="E57" s="48">
         <f>(E46/E30)/$C$2</f>
-        <v>7.6143535618039535E-2</v>
+        <v>5.7195634896587189E-2</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
@@ -5284,7 +5281,7 @@
         <v>1211</v>
       </c>
       <c r="T19" s="9">
-        <f t="shared" ref="T19:U19" si="11">SUM(T16:T18)</f>
+        <f t="shared" ref="T19" si="11">SUM(T16:T18)</f>
         <v>1167</v>
       </c>
       <c r="U19" s="9">
@@ -6315,7 +6312,7 @@
         <v>0.20739061766068856</v>
       </c>
       <c r="T33" s="18">
-        <f t="shared" ref="T33:U35" si="45">T16/P16-1</f>
+        <f t="shared" ref="T33:T35" si="45">T16/P16-1</f>
         <v>0.16198712029012974</v>
       </c>
       <c r="U33" s="18">
@@ -6963,7 +6960,7 @@
         <v>977.83499999999981</v>
       </c>
       <c r="T48" s="12">
-        <f t="shared" ref="T48:U48" si="53">SUM(Q24:T24)</f>
+        <f t="shared" ref="T48" si="53">SUM(Q24:T24)</f>
         <v>1329.777</v>
       </c>
       <c r="U48" s="12">
@@ -7142,7 +7139,7 @@
         <v>0.14285714285714279</v>
       </c>
       <c r="T54" s="18">
-        <f t="shared" ref="T54:U55" si="58">T10/P10-1</f>
+        <f t="shared" ref="T54:T55" si="58">T10/P10-1</f>
         <v>0.12857142857142856</v>
       </c>
       <c r="U54" s="18">

--- a/NFLX.xlsx
+++ b/NFLX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A23C99E-AF6C-9842-9B4D-3BC09EB132FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0735E3D4-BFAF-AD42-8BA9-B23416747B6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34980" yWindow="-5380" windowWidth="28160" windowHeight="26400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34980" yWindow="-5380" windowWidth="28160" windowHeight="26400" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="110">
   <si>
     <t>Q117</t>
   </si>
@@ -364,6 +364,9 @@
   </si>
   <si>
     <t>Q121</t>
+  </si>
+  <si>
+    <t>NER</t>
   </si>
 </sst>
 </file>
@@ -476,7 +479,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -630,6 +633,7 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -719,8 +723,8 @@
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>237393</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -736,7 +740,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="21944624" y="191477"/>
-          <a:ext cx="0" cy="8955454"/>
+          <a:ext cx="0" cy="9274908"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1028,7 +1032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DR61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
@@ -1207,7 +1211,7 @@
         <v>2018</v>
       </c>
       <c r="F9" s="58">
-        <f t="shared" ref="F9:V9" si="0">E9+1</f>
+        <f t="shared" ref="F9:T9" si="0">E9+1</f>
         <v>2019</v>
       </c>
       <c r="G9" s="58">
@@ -1424,27 +1428,27 @@
         <v>77</v>
       </c>
       <c r="B17" s="39">
-        <f>SUM(B10:B14)/B16</f>
+        <f t="shared" ref="B17:G17" si="2">SUM(B10:B14)/B16</f>
         <v>84.737500000000011</v>
       </c>
       <c r="C17" s="39">
-        <f>SUM(C10:C14)/C16</f>
+        <f t="shared" si="2"/>
         <v>91.031958762886603</v>
       </c>
       <c r="D17" s="39">
-        <f>SUM(D10:D14)/D16</f>
+        <f t="shared" si="2"/>
         <v>96.626049586776858</v>
       </c>
       <c r="E17" s="39">
-        <f>SUM(E10:E14)/E16</f>
+        <f t="shared" si="2"/>
         <v>113.62835251798562</v>
       </c>
       <c r="F17" s="39">
-        <f>SUM(F10:F14)/F16</f>
+        <f t="shared" si="2"/>
         <v>120.70319760479043</v>
       </c>
       <c r="G17" s="39">
-        <f>SUM(G10:G14)/G16</f>
+        <f t="shared" si="2"/>
         <v>122.73207306294806</v>
       </c>
       <c r="H17" s="38">
@@ -1452,19 +1456,19 @@
         <v>125.18671452420702</v>
       </c>
       <c r="I17" s="38">
-        <f t="shared" ref="I17:L17" si="2">H17*1.02</f>
+        <f t="shared" ref="I17:L17" si="3">H17*1.02</f>
         <v>127.69044881469117</v>
       </c>
       <c r="J17" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130.24425779098499</v>
       </c>
       <c r="K17" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>132.8491429468047</v>
       </c>
       <c r="L17" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>135.50612580574079</v>
       </c>
     </row>
@@ -1473,39 +1477,39 @@
         <v>4</v>
       </c>
       <c r="B19" s="40">
-        <f>B17*B16</f>
+        <f t="shared" ref="B19:G19" si="4">B17*B16</f>
         <v>6779.0000000000009</v>
       </c>
       <c r="C19" s="40">
-        <f>C17*C16</f>
+        <f t="shared" si="4"/>
         <v>8830.1</v>
       </c>
       <c r="D19" s="40">
-        <f>D17*D16</f>
+        <f t="shared" si="4"/>
         <v>11691.752</v>
       </c>
       <c r="E19" s="40">
-        <f>E17*E16</f>
+        <f t="shared" si="4"/>
         <v>15794.341</v>
       </c>
       <c r="F19" s="40">
-        <f>F17*F16</f>
+        <f t="shared" si="4"/>
         <v>20157.434000000001</v>
       </c>
       <c r="G19" s="40">
-        <f>G17*G16</f>
+        <f t="shared" si="4"/>
         <v>24995.614000000001</v>
       </c>
       <c r="H19" s="41">
-        <f t="shared" ref="H19:J19" si="3">H16*H17</f>
+        <f t="shared" ref="H19:J19" si="5">H16*H17</f>
         <v>30594.631536000001</v>
       </c>
       <c r="I19" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>37447.829000064005</v>
       </c>
       <c r="J19" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>45836.142696078336</v>
       </c>
       <c r="K19" s="41">
@@ -1517,35 +1521,35 @@
         <v>68670.608919839855</v>
       </c>
       <c r="M19" s="41">
-        <f t="shared" ref="L19:T19" si="4">L19*1.1</f>
+        <f t="shared" ref="M19:T19" si="6">L19*1.1</f>
         <v>75537.669811823842</v>
       </c>
       <c r="N19" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>83091.436793006229</v>
       </c>
       <c r="O19" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>91400.580472306858</v>
       </c>
       <c r="P19" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>100540.63851953755</v>
       </c>
       <c r="Q19" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>110594.70237149131</v>
       </c>
       <c r="R19" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>121654.17260864045</v>
       </c>
       <c r="S19" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>133819.5898695045</v>
       </c>
       <c r="T19" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>147201.54885645496</v>
       </c>
       <c r="U19" s="41">
@@ -1586,55 +1590,55 @@
         <v>15276.159</v>
       </c>
       <c r="H20" s="29">
-        <f t="shared" ref="H20" si="5">H19-H21</f>
+        <f t="shared" ref="H20" si="7">H19-H21</f>
         <v>18698.018616000001</v>
       </c>
       <c r="I20" s="29">
-        <f t="shared" ref="I20:Q20" si="6">I19-I21</f>
+        <f t="shared" ref="I20:Q20" si="8">I19-I21</f>
         <v>22886.374785984</v>
       </c>
       <c r="J20" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>28012.922738044414</v>
       </c>
       <c r="K20" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>34287.817431366362</v>
       </c>
       <c r="L20" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>41968.288535992426</v>
       </c>
       <c r="M20" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>46165.117389591673</v>
       </c>
       <c r="N20" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>50781.629128550834</v>
       </c>
       <c r="O20" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>55859.792041405926</v>
       </c>
       <c r="P20" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>61445.771245546523</v>
       </c>
       <c r="Q20" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>67590.348370101186</v>
       </c>
       <c r="R20" s="29">
-        <f t="shared" ref="R20:T20" si="7">R19-R21</f>
+        <f t="shared" ref="R20:T20" si="9">R19-R21</f>
         <v>74349.383207111299</v>
       </c>
       <c r="S20" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>81784.321527822438</v>
       </c>
       <c r="T20" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>89962.753680604685</v>
       </c>
       <c r="U20" s="29">
@@ -1651,79 +1655,79 @@
         <v>6</v>
       </c>
       <c r="B21" s="31">
-        <f>B19-B20</f>
+        <f t="shared" ref="B21:G21" si="10">B19-B20</f>
         <v>2187.7000000000007</v>
       </c>
       <c r="C21" s="31">
-        <f>C19-C20</f>
+        <f t="shared" si="10"/>
         <v>2800.3999999999996</v>
       </c>
       <c r="D21" s="31">
-        <f>D19-D20</f>
+        <f t="shared" si="10"/>
         <v>4032.5519999999997</v>
       </c>
       <c r="E21" s="31">
-        <f>E19-E20</f>
+        <f t="shared" si="10"/>
         <v>6162.6530000000002</v>
       </c>
       <c r="F21" s="31">
-        <f>F19-F20</f>
+        <f t="shared" si="10"/>
         <v>7716.4340000000011</v>
       </c>
       <c r="G21" s="31">
-        <f>G19-G20</f>
+        <f t="shared" si="10"/>
         <v>9719.4550000000017</v>
       </c>
       <c r="H21" s="29">
-        <f t="shared" ref="H21:T21" si="8">H19*G34</f>
+        <f t="shared" ref="H21:T21" si="11">H19*G34</f>
         <v>11896.612920000001</v>
       </c>
       <c r="I21" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>14561.454214080004</v>
       </c>
       <c r="J21" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>17823.219958033922</v>
       </c>
       <c r="K21" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>21815.621228633521</v>
       </c>
       <c r="L21" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>26702.320383847429</v>
       </c>
       <c r="M21" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>29372.552422232173</v>
       </c>
       <c r="N21" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>32309.807664455391</v>
       </c>
       <c r="O21" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>35540.788430900931</v>
       </c>
       <c r="P21" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>39094.867273991025</v>
       </c>
       <c r="Q21" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>43004.354001390129</v>
       </c>
       <c r="R21" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>47304.789401529146</v>
       </c>
       <c r="S21" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>52035.268341682058</v>
       </c>
       <c r="T21" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>57238.795175850268</v>
       </c>
       <c r="U21" s="29">
@@ -1764,19 +1768,19 @@
         <v>1830</v>
       </c>
       <c r="H22" s="29">
-        <f t="shared" ref="H22:K22" si="9">G22*1.15</f>
+        <f t="shared" ref="H22:K22" si="12">G22*1.15</f>
         <v>2104.5</v>
       </c>
       <c r="I22" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2420.1749999999997</v>
       </c>
       <c r="J22" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2783.2012499999996</v>
       </c>
       <c r="K22" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3200.6814374999994</v>
       </c>
       <c r="L22" s="29">
@@ -1784,35 +1788,35 @@
         <v>3520.7495812499997</v>
       </c>
       <c r="M22" s="29">
-        <f t="shared" ref="M22:T22" si="10">L22*1.1</f>
+        <f t="shared" ref="M22:T22" si="13">L22*1.1</f>
         <v>3872.8245393749999</v>
       </c>
       <c r="N22" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4260.1069933125</v>
       </c>
       <c r="O22" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4686.1176926437502</v>
       </c>
       <c r="P22" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5154.7294619081258</v>
       </c>
       <c r="Q22" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5670.2024080989386</v>
       </c>
       <c r="R22" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6237.2226489088325</v>
       </c>
       <c r="S22" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6860.9449137997162</v>
       </c>
       <c r="T22" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7547.0394051796884</v>
       </c>
       <c r="U22" s="29">
@@ -1853,55 +1857,55 @@
         <v>2229</v>
       </c>
       <c r="H23" s="29">
-        <f t="shared" ref="H23:K23" si="11">G23*1.05</f>
+        <f t="shared" ref="H23:K23" si="14">G23*1.05</f>
         <v>2340.4500000000003</v>
       </c>
       <c r="I23" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2457.4725000000003</v>
       </c>
       <c r="J23" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2580.3461250000005</v>
       </c>
       <c r="K23" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2709.3634312500008</v>
       </c>
       <c r="L23" s="29">
-        <f t="shared" ref="L23:T23" si="12">K23*1.02</f>
+        <f t="shared" ref="L23:T23" si="15">K23*1.02</f>
         <v>2763.5506998750006</v>
       </c>
       <c r="M23" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2818.8217138725008</v>
       </c>
       <c r="N23" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2875.1981481499511</v>
       </c>
       <c r="O23" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2932.7021111129502</v>
       </c>
       <c r="P23" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2991.3561533352095</v>
       </c>
       <c r="Q23" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3051.1832764019136</v>
       </c>
       <c r="R23" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3112.2069419299519</v>
       </c>
       <c r="S23" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3174.451080768551</v>
       </c>
       <c r="T23" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3237.9401023839223</v>
       </c>
       <c r="U23" s="29">
@@ -1942,55 +1946,55 @@
         <v>1077</v>
       </c>
       <c r="H24" s="29">
-        <f t="shared" ref="H24:K24" si="13">G24*0.9</f>
+        <f t="shared" ref="H24:K24" si="16">G24*0.9</f>
         <v>969.30000000000007</v>
       </c>
       <c r="I24" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>872.37000000000012</v>
       </c>
       <c r="J24" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>785.13300000000015</v>
       </c>
       <c r="K24" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>706.61970000000019</v>
       </c>
       <c r="L24" s="29">
-        <f t="shared" ref="L24:T24" si="14">K24*0.98</f>
+        <f t="shared" ref="L24:T24" si="17">K24*0.98</f>
         <v>692.48730600000022</v>
       </c>
       <c r="M24" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>678.63755988000025</v>
       </c>
       <c r="N24" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>665.06480868240021</v>
       </c>
       <c r="O24" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>651.76351250875223</v>
       </c>
       <c r="P24" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>638.72824225857721</v>
       </c>
       <c r="Q24" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>625.95367741340567</v>
       </c>
       <c r="R24" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>613.43460386513755</v>
       </c>
       <c r="S24" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>601.16591178783483</v>
       </c>
       <c r="T24" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>589.1425935520781</v>
       </c>
       <c r="U24" s="29">
@@ -2007,79 +2011,79 @@
         <v>10</v>
       </c>
       <c r="B25" s="31">
-        <f>SUM(B22:B24)</f>
+        <f t="shared" ref="B25:G25" si="18">SUM(B22:B24)</f>
         <v>1881.6</v>
       </c>
       <c r="C25" s="31">
-        <f>SUM(C22:C24)</f>
+        <f t="shared" si="18"/>
         <v>2420.5</v>
       </c>
       <c r="D25" s="31">
-        <f>SUM(D22:D24)</f>
+        <f t="shared" si="18"/>
         <v>3193.8979999999997</v>
       </c>
       <c r="E25" s="31">
-        <f>SUM(E22:E24)</f>
+        <f t="shared" si="18"/>
         <v>4557.4269999999997</v>
       </c>
       <c r="F25" s="31">
-        <f>SUM(F22:F24)</f>
+        <f t="shared" si="18"/>
         <v>5112</v>
       </c>
       <c r="G25" s="31">
-        <f>SUM(G22:G24)</f>
+        <f t="shared" si="18"/>
         <v>5136</v>
       </c>
       <c r="H25" s="29">
-        <f t="shared" ref="H25" si="15">SUM(H22:H24)</f>
+        <f t="shared" ref="H25" si="19">SUM(H22:H24)</f>
         <v>5414.2500000000009</v>
       </c>
       <c r="I25" s="29">
-        <f t="shared" ref="I25:Q25" si="16">SUM(I22:I24)</f>
+        <f t="shared" ref="I25:Q25" si="20">SUM(I22:I24)</f>
         <v>5750.0174999999999</v>
       </c>
       <c r="J25" s="29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>6148.6803749999999</v>
       </c>
       <c r="K25" s="29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>6616.6645687500004</v>
       </c>
       <c r="L25" s="29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>6976.7875871250008</v>
       </c>
       <c r="M25" s="29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>7370.2838131275012</v>
       </c>
       <c r="N25" s="29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>7800.3699501448518</v>
       </c>
       <c r="O25" s="29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>8270.5833162654526</v>
       </c>
       <c r="P25" s="29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>8784.8138575019129</v>
       </c>
       <c r="Q25" s="29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>9347.3393619142571</v>
       </c>
       <c r="R25" s="29">
-        <f t="shared" ref="R25:T25" si="17">SUM(R22:R24)</f>
+        <f t="shared" ref="R25:T25" si="21">SUM(R22:R24)</f>
         <v>9962.8641947039232</v>
       </c>
       <c r="S25" s="29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10636.561906356103</v>
       </c>
       <c r="T25" s="29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>11374.122101115689</v>
       </c>
       <c r="U25" s="29">
@@ -2096,79 +2100,79 @@
         <v>11</v>
       </c>
       <c r="B26" s="31">
-        <f>B21-B25</f>
+        <f t="shared" ref="B26:G26" si="22">B21-B25</f>
         <v>306.10000000000082</v>
       </c>
       <c r="C26" s="31">
-        <f>C21-C25</f>
+        <f t="shared" si="22"/>
         <v>379.89999999999964</v>
       </c>
       <c r="D26" s="31">
-        <f>D21-D25</f>
+        <f t="shared" si="22"/>
         <v>838.654</v>
       </c>
       <c r="E26" s="31">
-        <f>E21-E25</f>
+        <f t="shared" si="22"/>
         <v>1605.2260000000006</v>
       </c>
       <c r="F26" s="31">
-        <f>F21-F25</f>
+        <f t="shared" si="22"/>
         <v>2604.4340000000011</v>
       </c>
       <c r="G26" s="31">
-        <f>G21-G25</f>
+        <f t="shared" si="22"/>
         <v>4583.4550000000017</v>
       </c>
       <c r="H26" s="29">
-        <f t="shared" ref="H26" si="18">H21-H25</f>
+        <f t="shared" ref="H26" si="23">H21-H25</f>
         <v>6482.3629200000005</v>
       </c>
       <c r="I26" s="29">
-        <f t="shared" ref="I26:Q26" si="19">I21-I25</f>
+        <f t="shared" ref="I26:Q26" si="24">I21-I25</f>
         <v>8811.4367140800041</v>
       </c>
       <c r="J26" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>11674.539583033922</v>
       </c>
       <c r="K26" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>15198.956659883521</v>
       </c>
       <c r="L26" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>19725.532796722429</v>
       </c>
       <c r="M26" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>22002.268609104671</v>
       </c>
       <c r="N26" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>24509.437714310538</v>
       </c>
       <c r="O26" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>27270.205114635479</v>
       </c>
       <c r="P26" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>30310.053416489114</v>
       </c>
       <c r="Q26" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>33657.01463947587</v>
       </c>
       <c r="R26" s="29">
-        <f t="shared" ref="R26:T26" si="20">R21-R25</f>
+        <f t="shared" ref="R26:T26" si="25">R21-R25</f>
         <v>37341.925206825224</v>
       </c>
       <c r="S26" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>41398.706435325956</v>
       </c>
       <c r="T26" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>45864.673074734579</v>
       </c>
       <c r="U26" s="29">
@@ -2209,55 +2213,55 @@
         <v>-1385</v>
       </c>
       <c r="H27" s="29">
-        <f t="shared" ref="H27:T27" si="21">F44*$F$3</f>
+        <f t="shared" ref="H27:T27" si="26">F44*$F$3</f>
         <v>-97.41</v>
       </c>
       <c r="I27" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>-81.034500000000008</v>
       </c>
       <c r="J27" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>-26.762400180000004</v>
       </c>
       <c r="K27" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>47.446018639680034</v>
       </c>
       <c r="L27" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>146.4521246939384</v>
       </c>
       <c r="M27" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>276.04654746138561</v>
       </c>
       <c r="N27" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>444.9584192934247</v>
       </c>
       <c r="O27" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>634.32409812423623</v>
       </c>
       <c r="P27" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>846.43646525986992</v>
       </c>
       <c r="Q27" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>1083.6249635683275</v>
       </c>
       <c r="R27" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>1348.4551275631941</v>
       </c>
       <c r="S27" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>1643.7505641890696</v>
       </c>
       <c r="T27" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>1972.6187970313713</v>
       </c>
       <c r="U27" s="29">
@@ -2298,55 +2302,55 @@
         <v>3198.4550000000017</v>
       </c>
       <c r="H28" s="29">
-        <f t="shared" ref="H28" si="22">H26+H27</f>
+        <f t="shared" ref="H28" si="27">H26+H27</f>
         <v>6384.9529200000006</v>
       </c>
       <c r="I28" s="29">
-        <f t="shared" ref="I28:Q28" si="23">I26+I27</f>
+        <f t="shared" ref="I28:Q28" si="28">I26+I27</f>
         <v>8730.4022140800043</v>
       </c>
       <c r="J28" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>11647.777182853923</v>
       </c>
       <c r="K28" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>15246.402678523202</v>
       </c>
       <c r="L28" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>19871.984921416366</v>
       </c>
       <c r="M28" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>22278.315156566056</v>
       </c>
       <c r="N28" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>24954.396133603961</v>
       </c>
       <c r="O28" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>27904.529212759717</v>
       </c>
       <c r="P28" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>31156.489881748985</v>
       </c>
       <c r="Q28" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>34740.639603044197</v>
       </c>
       <c r="R28" s="29">
-        <f t="shared" ref="R28:T28" si="24">R26+R27</f>
+        <f t="shared" ref="R28:T28" si="29">R26+R27</f>
         <v>38690.380334388421</v>
       </c>
       <c r="S28" s="29">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>43042.456999515023</v>
       </c>
       <c r="T28" s="29">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>47837.291871765949</v>
       </c>
       <c r="U28" s="29">
@@ -2387,55 +2391,55 @@
         <v>437</v>
       </c>
       <c r="H29" s="29">
-        <f t="shared" ref="H29:Q29" si="25">H28*0.15</f>
+        <f t="shared" ref="H29:Q29" si="30">H28*0.15</f>
         <v>957.74293800000009</v>
       </c>
       <c r="I29" s="29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1309.5603321120007</v>
       </c>
       <c r="J29" s="29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1747.1665774280884</v>
       </c>
       <c r="K29" s="29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>2286.96040177848</v>
       </c>
       <c r="L29" s="29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>2980.797738212455</v>
       </c>
       <c r="M29" s="29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>3341.7472734849084</v>
       </c>
       <c r="N29" s="29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>3743.1594200405939</v>
       </c>
       <c r="O29" s="29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>4185.6793819139575</v>
       </c>
       <c r="P29" s="29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>4673.4734822623477</v>
       </c>
       <c r="Q29" s="29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>5211.0959404566293</v>
       </c>
       <c r="R29" s="29">
-        <f t="shared" ref="R29:T29" si="26">R28*0.15</f>
+        <f t="shared" ref="R29:T29" si="31">R28*0.15</f>
         <v>5803.5570501582633</v>
       </c>
       <c r="S29" s="29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>6456.3685499272533</v>
       </c>
       <c r="T29" s="29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>7175.5937807648925</v>
       </c>
       <c r="U29" s="29">
@@ -2452,19 +2456,19 @@
         <v>15</v>
       </c>
       <c r="B30" s="40">
-        <f t="shared" ref="B30:G30" si="27">B28-B29</f>
+        <f t="shared" ref="B30:G30" si="32">B28-B29</f>
         <v>-522.49999999999989</v>
       </c>
       <c r="C30" s="40">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>186.99999999999966</v>
       </c>
       <c r="D30" s="40">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>559.06799999999998</v>
       </c>
       <c r="E30" s="40">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1211.2420000000006</v>
       </c>
       <c r="F30" s="40">
@@ -2472,59 +2476,59 @@
         <v>1868.4340000000011</v>
       </c>
       <c r="G30" s="40">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>2761.4550000000017</v>
       </c>
       <c r="H30" s="40">
-        <f t="shared" ref="H30" si="28">H28-H29</f>
+        <f t="shared" ref="H30" si="33">H28-H29</f>
         <v>5427.2099820000003</v>
       </c>
       <c r="I30" s="40">
-        <f t="shared" ref="I30:Q30" si="29">I28-I29</f>
+        <f t="shared" ref="I30:Q30" si="34">I28-I29</f>
         <v>7420.8418819680037</v>
       </c>
       <c r="J30" s="40">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>9900.6106054258344</v>
       </c>
       <c r="K30" s="40">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>12959.442276744721</v>
       </c>
       <c r="L30" s="40">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>16891.187183203911</v>
       </c>
       <c r="M30" s="40">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>18936.567883081148</v>
       </c>
       <c r="N30" s="40">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>21211.236713563369</v>
       </c>
       <c r="O30" s="40">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>23718.84983084576</v>
       </c>
       <c r="P30" s="40">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>26483.016399486638</v>
       </c>
       <c r="Q30" s="40">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>29529.543662587566</v>
       </c>
       <c r="R30" s="40">
-        <f t="shared" ref="R30:T30" si="30">R28-R29</f>
+        <f t="shared" ref="R30:T30" si="35">R28-R29</f>
         <v>32886.823284230159</v>
       </c>
       <c r="S30" s="40">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>36586.088449587769</v>
       </c>
       <c r="T30" s="40">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>40661.698091001053</v>
       </c>
       <c r="U30" s="40">
@@ -2540,399 +2544,399 @@
         <v>49846.437746452655</v>
       </c>
       <c r="X30" s="40">
-        <f t="shared" ref="V30:CD30" si="31">W30*(1+$F$2)</f>
+        <f t="shared" ref="X30:CD30" si="36">W30*(1+$F$2)</f>
         <v>49597.205557720394</v>
       </c>
       <c r="Y30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>49349.21952993179</v>
       </c>
       <c r="Z30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>49102.473432282131</v>
       </c>
       <c r="AA30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>48856.961065120719</v>
       </c>
       <c r="AB30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>48612.676259795116</v>
       </c>
       <c r="AC30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>48369.61287849614</v>
       </c>
       <c r="AD30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>48127.764814103663</v>
       </c>
       <c r="AE30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>47887.125990033142</v>
       </c>
       <c r="AF30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>47647.690360082976</v>
       </c>
       <c r="AG30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>47409.451908282557</v>
       </c>
       <c r="AH30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>47172.404648741147</v>
       </c>
       <c r="AI30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>46936.542625497445</v>
       </c>
       <c r="AJ30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>46701.859912369961</v>
       </c>
       <c r="AK30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>46468.350612808114</v>
       </c>
       <c r="AL30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>46236.00885974407</v>
       </c>
       <c r="AM30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>46004.828815445348</v>
       </c>
       <c r="AN30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>45774.804671368118</v>
       </c>
       <c r="AO30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>45545.930648011279</v>
       </c>
       <c r="AP30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>45318.200994771221</v>
       </c>
       <c r="AQ30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>45091.609989797362</v>
       </c>
       <c r="AR30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>44866.151939848372</v>
       </c>
       <c r="AS30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>44641.821180149127</v>
       </c>
       <c r="AT30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>44418.612074248384</v>
       </c>
       <c r="AU30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>44196.519013877143</v>
       </c>
       <c r="AV30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>43975.536418807758</v>
       </c>
       <c r="AW30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>43755.658736713718</v>
       </c>
       <c r="AX30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>43536.880443030146</v>
       </c>
       <c r="AY30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>43319.196040814997</v>
       </c>
       <c r="AZ30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>43102.600060610923</v>
       </c>
       <c r="BA30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>42887.087060307866</v>
       </c>
       <c r="BB30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>42672.651625006329</v>
       </c>
       <c r="BC30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>42459.288366881294</v>
       </c>
       <c r="BD30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>42246.991925046888</v>
       </c>
       <c r="BE30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>42035.756965421657</v>
       </c>
       <c r="BF30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>41825.578180594552</v>
       </c>
       <c r="BG30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>41616.45028969158</v>
       </c>
       <c r="BH30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>41408.368038243119</v>
       </c>
       <c r="BI30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>41201.326198051902</v>
       </c>
       <c r="BJ30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>40995.319567061641</v>
       </c>
       <c r="BK30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>40790.342969226331</v>
       </c>
       <c r="BL30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>40586.3912543802</v>
       </c>
       <c r="BM30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>40383.459298108297</v>
       </c>
       <c r="BN30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>40181.542001617752</v>
       </c>
       <c r="BO30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>39980.634291609662</v>
       </c>
       <c r="BP30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>39780.731120151613</v>
       </c>
       <c r="BQ30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>39581.827464550857</v>
       </c>
       <c r="BR30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>39383.918327228101</v>
       </c>
       <c r="BS30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>39186.998735591958</v>
       </c>
       <c r="BT30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>38991.063741913997</v>
       </c>
       <c r="BU30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>38796.108423204423</v>
       </c>
       <c r="BV30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>38602.127881088403</v>
       </c>
       <c r="BW30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>38409.117241682958</v>
       </c>
       <c r="BX30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>38217.071655474545</v>
       </c>
       <c r="BY30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>38025.986297197174</v>
       </c>
       <c r="BZ30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>37835.856365711188</v>
       </c>
       <c r="CA30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>37646.677083882634</v>
       </c>
       <c r="CB30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>37458.443698463219</v>
       </c>
       <c r="CC30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>37271.151479970904</v>
       </c>
       <c r="CD30" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>37084.795722571049</v>
       </c>
       <c r="CE30" s="40">
-        <f t="shared" ref="CE30:DR30" si="32">CD30*(1+$F$2)</f>
+        <f t="shared" ref="CE30:DR30" si="37">CD30*(1+$F$2)</f>
         <v>36899.371743958196</v>
       </c>
       <c r="CF30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>36714.874885238401</v>
       </c>
       <c r="CG30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>36531.300510812209</v>
       </c>
       <c r="CH30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>36348.644008258147</v>
       </c>
       <c r="CI30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>36166.900788216859</v>
       </c>
       <c r="CJ30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>35986.066284275774</v>
       </c>
       <c r="CK30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>35806.135952854398</v>
       </c>
       <c r="CL30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>35627.105273090128</v>
       </c>
       <c r="CM30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>35448.969746724681</v>
       </c>
       <c r="CN30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>35271.724897991058</v>
       </c>
       <c r="CO30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>35095.366273501102</v>
       </c>
       <c r="CP30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>34919.889442133594</v>
       </c>
       <c r="CQ30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>34745.289994922925</v>
       </c>
       <c r="CR30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>34571.563544948309</v>
       </c>
       <c r="CS30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>34398.705727223569</v>
       </c>
       <c r="CT30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>34226.712198587447</v>
       </c>
       <c r="CU30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>34055.57863759451</v>
       </c>
       <c r="CV30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>33885.300744406537</v>
       </c>
       <c r="CW30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>33715.874240684505</v>
       </c>
       <c r="CX30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>33547.294869481084</v>
       </c>
       <c r="CY30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>33379.558395133681</v>
       </c>
       <c r="CZ30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>33212.660603158016</v>
       </c>
       <c r="DA30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>33046.597300142224</v>
       </c>
       <c r="DB30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>32881.364313641512</v>
       </c>
       <c r="DC30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>32716.957492073303</v>
       </c>
       <c r="DD30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>32553.372704612935</v>
       </c>
       <c r="DE30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>32390.60584108987</v>
       </c>
       <c r="DF30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>32228.652811884422</v>
       </c>
       <c r="DG30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>32067.509547825</v>
       </c>
       <c r="DH30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>31907.172000085877</v>
       </c>
       <c r="DI30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>31747.636140085448</v>
       </c>
       <c r="DJ30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>31588.89795938502</v>
       </c>
       <c r="DK30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>31430.953469588094</v>
       </c>
       <c r="DL30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>31273.798702240154</v>
       </c>
       <c r="DM30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>31117.429708728952</v>
       </c>
       <c r="DN30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>30961.842560185309</v>
       </c>
       <c r="DO30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>30807.033347384382</v>
       </c>
       <c r="DP30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>30652.998180647461</v>
       </c>
       <c r="DQ30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>30499.733189744224</v>
       </c>
       <c r="DR30" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>30347.234523795501</v>
       </c>
     </row>
@@ -2941,79 +2945,79 @@
         <v>16</v>
       </c>
       <c r="B31" s="42">
-        <f>B30/B32</f>
+        <f t="shared" ref="B31:G31" si="38">B30/B32</f>
         <v>-1.1972960586617778</v>
       </c>
       <c r="C31" s="42">
-        <f>C30/C32</f>
+        <f t="shared" si="38"/>
         <v>0.42638089266373974</v>
       </c>
       <c r="D31" s="42">
-        <f>D30/D32</f>
+        <f t="shared" si="38"/>
         <v>1.2513818925352622</v>
       </c>
       <c r="E31" s="42">
-        <f>E30/E32</f>
+        <f t="shared" si="38"/>
         <v>2.6849901134076393</v>
       </c>
       <c r="F31" s="42">
-        <f>F30/F32</f>
+        <f t="shared" si="38"/>
         <v>4.1395006724018391</v>
       </c>
       <c r="G31" s="42">
-        <f>G30/G32</f>
+        <f t="shared" si="38"/>
         <v>6.0653593479220653</v>
       </c>
       <c r="H31" s="43">
-        <f t="shared" ref="H31" si="33">H30/H32</f>
+        <f t="shared" ref="H31" si="39">H30/H32</f>
         <v>11.920519725094062</v>
       </c>
       <c r="I31" s="43">
-        <f t="shared" ref="I31:Q31" si="34">I30/I32</f>
+        <f t="shared" ref="I31:Q31" si="40">I30/I32</f>
         <v>16.299404726220843</v>
       </c>
       <c r="J31" s="43">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>21.746058177937314</v>
       </c>
       <c r="K31" s="43">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>28.464586370992812</v>
       </c>
       <c r="L31" s="43">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>37.100412673444673</v>
       </c>
       <c r="M31" s="43">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>41.592960604901016</v>
       </c>
       <c r="N31" s="43">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>46.589125255200322</v>
       </c>
       <c r="O31" s="43">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>52.096937137661101</v>
       </c>
       <c r="P31" s="43">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>58.168252272732865</v>
       </c>
       <c r="Q31" s="43">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>64.859754619846484</v>
       </c>
       <c r="R31" s="43">
-        <f t="shared" ref="R31:T31" si="35">R30/R32</f>
+        <f t="shared" ref="R31:T31" si="41">R30/R32</f>
         <v>72.233804653874969</v>
       </c>
       <c r="S31" s="43">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>80.359004069090588</v>
       </c>
       <c r="T31" s="43">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>89.310820063567164</v>
       </c>
       <c r="U31" s="43">
@@ -3054,55 +3058,55 @@
         <v>455.28300000000002</v>
       </c>
       <c r="H32" s="29">
-        <f t="shared" ref="H32" si="36">G32</f>
+        <f t="shared" ref="H32" si="42">G32</f>
         <v>455.28300000000002</v>
       </c>
       <c r="I32" s="29">
-        <f t="shared" ref="I32" si="37">H32</f>
+        <f t="shared" ref="I32" si="43">H32</f>
         <v>455.28300000000002</v>
       </c>
       <c r="J32" s="29">
-        <f t="shared" ref="J32" si="38">I32</f>
+        <f t="shared" ref="J32" si="44">I32</f>
         <v>455.28300000000002</v>
       </c>
       <c r="K32" s="29">
-        <f t="shared" ref="K32" si="39">J32</f>
+        <f t="shared" ref="K32" si="45">J32</f>
         <v>455.28300000000002</v>
       </c>
       <c r="L32" s="29">
-        <f t="shared" ref="L32" si="40">K32</f>
+        <f t="shared" ref="L32" si="46">K32</f>
         <v>455.28300000000002</v>
       </c>
       <c r="M32" s="29">
-        <f t="shared" ref="M32" si="41">L32</f>
+        <f t="shared" ref="M32" si="47">L32</f>
         <v>455.28300000000002</v>
       </c>
       <c r="N32" s="29">
-        <f t="shared" ref="N32" si="42">M32</f>
+        <f t="shared" ref="N32" si="48">M32</f>
         <v>455.28300000000002</v>
       </c>
       <c r="O32" s="29">
-        <f t="shared" ref="O32" si="43">N32</f>
+        <f t="shared" ref="O32" si="49">N32</f>
         <v>455.28300000000002</v>
       </c>
       <c r="P32" s="29">
-        <f t="shared" ref="P32" si="44">O32</f>
+        <f t="shared" ref="P32" si="50">O32</f>
         <v>455.28300000000002</v>
       </c>
       <c r="Q32" s="29">
-        <f t="shared" ref="Q32:T32" si="45">P32</f>
+        <f t="shared" ref="Q32:T32" si="51">P32</f>
         <v>455.28300000000002</v>
       </c>
       <c r="R32" s="29">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>455.28300000000002</v>
       </c>
       <c r="S32" s="29">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>455.28300000000002</v>
       </c>
       <c r="T32" s="29">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>455.28300000000002</v>
       </c>
       <c r="U32" s="29">
@@ -3142,79 +3146,79 @@
         <v>19</v>
       </c>
       <c r="B34" s="46">
-        <f t="shared" ref="B34:Q34" si="46">IFERROR(B21/B19,0)</f>
+        <f t="shared" ref="B34:Q34" si="52">IFERROR(B21/B19,0)</f>
         <v>0.32271721492845556</v>
       </c>
       <c r="C34" s="46">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0.31714250121742671</v>
       </c>
       <c r="D34" s="46">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0.34490570788706426</v>
       </c>
       <c r="E34" s="46">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0.3901810781469135</v>
       </c>
       <c r="F34" s="46">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0.38280834753074228</v>
       </c>
       <c r="G34" s="46">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0.38884641921578728</v>
       </c>
       <c r="H34" s="46">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0.38884641921578728</v>
       </c>
       <c r="I34" s="46">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0.38884641921578728</v>
       </c>
       <c r="J34" s="46">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0.38884641921578728</v>
       </c>
       <c r="K34" s="46">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0.38884641921578728</v>
       </c>
       <c r="L34" s="46">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0.38884641921578728</v>
       </c>
       <c r="M34" s="46">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0.38884641921578728</v>
       </c>
       <c r="N34" s="46">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0.38884641921578728</v>
       </c>
       <c r="O34" s="46">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0.38884641921578728</v>
       </c>
       <c r="P34" s="46">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0.38884641921578728</v>
       </c>
       <c r="Q34" s="46">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0.38884641921578722</v>
       </c>
       <c r="R34" s="46">
-        <f t="shared" ref="R34:T34" si="47">IFERROR(R21/R19,0)</f>
+        <f t="shared" ref="R34:T34" si="53">IFERROR(R21/R19,0)</f>
         <v>0.38884641921578722</v>
       </c>
       <c r="S34" s="46">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.38884641921578722</v>
       </c>
       <c r="T34" s="46">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.38884641921578722</v>
       </c>
       <c r="U34" s="46">
@@ -3231,79 +3235,79 @@
         <v>20</v>
       </c>
       <c r="B35" s="45">
-        <f t="shared" ref="B35:Q35" si="48">IFERROR(B26/B19,0)</f>
+        <f t="shared" ref="B35:Q35" si="54">IFERROR(B26/B19,0)</f>
         <v>4.5154152529871774E-2</v>
       </c>
       <c r="C35" s="45">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>4.3023295319418765E-2</v>
       </c>
       <c r="D35" s="45">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>7.1730395923553625E-2</v>
       </c>
       <c r="E35" s="45">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.10163298361102882</v>
       </c>
       <c r="F35" s="45">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.1292046398365983</v>
       </c>
       <c r="G35" s="45">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.18337037049780019</v>
       </c>
       <c r="H35" s="45">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.21187909755907186</v>
       </c>
       <c r="I35" s="45">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.23529899995177142</v>
       </c>
       <c r="J35" s="45">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.25470161528301499</v>
       </c>
       <c r="K35" s="45">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.27090953821908842</v>
       </c>
       <c r="L35" s="45">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.28724854937209476</v>
       </c>
       <c r="M35" s="45">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.29127544791778415</v>
       </c>
       <c r="N35" s="45">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.29496947772569371</v>
       </c>
       <c r="O35" s="45">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.29835921143737137</v>
       </c>
       <c r="P35" s="45">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.30147066761068081</v>
       </c>
       <c r="Q35" s="45">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.30432754840662107</v>
       </c>
       <c r="R35" s="45">
-        <f t="shared" ref="R35:T35" si="49">IFERROR(R26/R19,0)</f>
+        <f t="shared" ref="R35:T35" si="55">IFERROR(R26/R19,0)</f>
         <v>0.30695145432416532</v>
       </c>
       <c r="S35" s="45">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>0.309362078270426</v>
       </c>
       <c r="T35" s="45">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>0.31157738101967913</v>
       </c>
       <c r="U35" s="45">
@@ -3320,79 +3324,79 @@
         <v>21</v>
       </c>
       <c r="B36" s="45">
-        <f t="shared" ref="B36:Q36" si="50">IFERROR(B29/B28,0)</f>
+        <f t="shared" ref="B36:Q36" si="56">IFERROR(B29/B28,0)</f>
         <v>-3.8148221736538847E-2</v>
       </c>
       <c r="C36" s="45">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0.28270042194092865</v>
       </c>
       <c r="D36" s="45">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>-0.15133829371412802</v>
       </c>
       <c r="E36" s="45">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>1.2406458272521351E-2</v>
       </c>
       <c r="F36" s="45">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>9.4502659159439992E-2</v>
       </c>
       <c r="G36" s="45">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0.13662846593120734</v>
       </c>
       <c r="H36" s="45">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0.15</v>
       </c>
       <c r="I36" s="45">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0.15</v>
       </c>
       <c r="J36" s="45">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0.15</v>
       </c>
       <c r="K36" s="45">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0.15</v>
       </c>
       <c r="L36" s="45">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0.15</v>
       </c>
       <c r="M36" s="45">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0.15</v>
       </c>
       <c r="N36" s="45">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0.15</v>
       </c>
       <c r="O36" s="45">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0.15</v>
       </c>
       <c r="P36" s="45">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0.15</v>
       </c>
       <c r="Q36" s="45">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0.15</v>
       </c>
       <c r="R36" s="45">
-        <f t="shared" ref="R36:T36" si="51">IFERROR(R29/R28,0)</f>
+        <f t="shared" ref="R36:T36" si="57">IFERROR(R29/R28,0)</f>
         <v>0.15</v>
       </c>
       <c r="S36" s="45">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0.15</v>
       </c>
       <c r="T36" s="45">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0.15</v>
       </c>
       <c r="U36" s="45">
@@ -3433,15 +3437,15 @@
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="44">
-        <f t="shared" ref="C38:T38" si="52">C19/B19-1</f>
+        <f t="shared" ref="C38:T38" si="58">C19/B19-1</f>
         <v>0.30256675025814994</v>
       </c>
       <c r="D38" s="44">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.3240792290008041</v>
       </c>
       <c r="E38" s="44">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.35089599916248648</v>
       </c>
       <c r="F38" s="44">
@@ -3449,59 +3453,59 @@
         <v>0.27624406741629803</v>
       </c>
       <c r="G38" s="44">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.24001963742012</v>
       </c>
       <c r="H38" s="44">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.22399999999999998</v>
       </c>
       <c r="I38" s="44">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.2240000000000002</v>
       </c>
       <c r="J38" s="44">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.22399999999999975</v>
       </c>
       <c r="K38" s="44">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.22399999999999998</v>
       </c>
       <c r="L38" s="44">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.22399999999999998</v>
       </c>
       <c r="M38" s="44">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="N38" s="44">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="O38" s="44">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="P38" s="44">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="Q38" s="44">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="R38" s="44">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="S38" s="44">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="T38" s="44">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="U38" s="44">
@@ -3519,83 +3523,83 @@
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="45">
-        <f t="shared" ref="C39:T39" si="53">C22/B22-1</f>
+        <f t="shared" ref="C39:T39" si="59">C22/B22-1</f>
         <v>0.30940670150630178</v>
       </c>
       <c r="D39" s="45">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>0.2356508979927221</v>
       </c>
       <c r="E39" s="45">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>0.21289772203702872</v>
       </c>
       <c r="F39" s="45">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>0.20931296298907065</v>
       </c>
       <c r="G39" s="45">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>0.18523316062176165</v>
       </c>
       <c r="H39" s="45">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="I39" s="45">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="J39" s="45">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="K39" s="45">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="L39" s="45">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="M39" s="45">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="N39" s="45">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="O39" s="45">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="P39" s="45">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="Q39" s="45">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="R39" s="45">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="S39" s="45">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="T39" s="45">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="U39" s="45">
-        <f>U22/T22-1</f>
+        <f t="shared" ref="U39:V42" si="60">U22/T22-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="V39" s="45">
-        <f>V22/U22-1</f>
+        <f t="shared" si="60"/>
         <v>0.10000000000000009</v>
       </c>
     </row>
@@ -3605,83 +3609,83 @@
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="45">
-        <f t="shared" ref="C40:T40" si="54">C23/B23-1</f>
+        <f t="shared" ref="C40:T40" si="61">C23/B23-1</f>
         <v>0.20269450175992243</v>
       </c>
       <c r="D40" s="45">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>0.2895741245332526</v>
       </c>
       <c r="E40" s="45">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>0.69945196538844123</v>
       </c>
       <c r="F40" s="45">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>0.22166524069982563</v>
       </c>
       <c r="G40" s="45">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>-0.15981907274783269</v>
       </c>
       <c r="H40" s="45">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="I40" s="45">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="J40" s="45">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="K40" s="45">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="L40" s="45">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="M40" s="45">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="N40" s="45">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="O40" s="45">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="P40" s="45">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="Q40" s="45">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="R40" s="45">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="S40" s="45">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="T40" s="45">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="U40" s="45">
-        <f>U23/T23-1</f>
+        <f t="shared" si="60"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="V40" s="45">
-        <f>V23/U23-1</f>
+        <f t="shared" si="60"/>
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
@@ -3691,83 +3695,83 @@
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="45">
-        <f t="shared" ref="C41:T41" si="55">C24/B24-1</f>
+        <f t="shared" ref="C41:T41" si="62">C24/B24-1</f>
         <v>0.41906165561287145</v>
       </c>
       <c r="D41" s="45">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.4945611909295482</v>
       </c>
       <c r="E41" s="45">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.28449470007227151</v>
       </c>
       <c r="F41" s="45">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>-0.17496436116543712</v>
       </c>
       <c r="G41" s="45">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.17704918032786887</v>
       </c>
       <c r="H41" s="45">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="I41" s="45">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="J41" s="45">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="K41" s="45">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="L41" s="45">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>-1.9999999999999907E-2</v>
       </c>
       <c r="M41" s="45">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>-1.9999999999999907E-2</v>
       </c>
       <c r="N41" s="45">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="O41" s="45">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="P41" s="45">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>-1.9999999999999907E-2</v>
       </c>
       <c r="Q41" s="45">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="R41" s="45">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="S41" s="45">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>-1.9999999999999907E-2</v>
       </c>
       <c r="T41" s="45">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="U41" s="45">
-        <f>U24/T24-1</f>
+        <f t="shared" si="60"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="V41" s="45">
-        <f>V24/U24-1</f>
+        <f t="shared" si="60"/>
         <v>-2.0000000000000129E-2</v>
       </c>
     </row>
@@ -3797,63 +3801,63 @@
         <v>4.6948356807512415E-3</v>
       </c>
       <c r="H42" s="52">
-        <f t="shared" ref="H42:T42" si="56">H25/G25-1</f>
+        <f t="shared" ref="H42:T42" si="63">H25/G25-1</f>
         <v>5.4176401869159063E-2</v>
       </c>
       <c r="I42" s="52">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>6.2015514614212286E-2</v>
       </c>
       <c r="J42" s="52">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>6.9332462901199765E-2</v>
       </c>
       <c r="K42" s="52">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>7.6111322301413376E-2</v>
       </c>
       <c r="L42" s="52">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>5.4426669907952308E-2</v>
       </c>
       <c r="M42" s="52">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>5.6400774867886305E-2</v>
       </c>
       <c r="N42" s="52">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>5.8354080781978457E-2</v>
       </c>
       <c r="O42" s="52">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>6.0280905793688611E-2</v>
       </c>
       <c r="P42" s="52">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>6.2175849220349688E-2</v>
       </c>
       <c r="Q42" s="52">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>6.4033855871854062E-2</v>
       </c>
       <c r="R42" s="52">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>6.5850271286567619E-2</v>
       </c>
       <c r="S42" s="52">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>6.7620886773735789E-2</v>
       </c>
       <c r="T42" s="52">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>6.9341973586299677E-2</v>
       </c>
       <c r="U42" s="52">
-        <f>U25/T25-1</f>
+        <f t="shared" si="60"/>
         <v>7.1010305983560951E-2</v>
       </c>
       <c r="V42" s="52">
-        <f>V25/U25-1</f>
+        <f t="shared" si="60"/>
         <v>7.2623173354774639E-2</v>
       </c>
     </row>
@@ -3901,63 +3905,63 @@
         <v>-6565.5750000000007</v>
       </c>
       <c r="F44" s="40">
-        <f t="shared" ref="F44:G44" si="57">F45-F46</f>
+        <f t="shared" ref="F44:G44" si="64">F45-F46</f>
         <v>-9741</v>
       </c>
       <c r="G44" s="40">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>-8103.4500000000007</v>
       </c>
       <c r="H44" s="50">
-        <f t="shared" ref="H44:T44" si="58">G44+H30</f>
+        <f t="shared" ref="H44:T44" si="65">G44+H30</f>
         <v>-2676.2400180000004</v>
       </c>
       <c r="I44" s="50">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>4744.6018639680033</v>
       </c>
       <c r="J44" s="50">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>14645.212469393839</v>
       </c>
       <c r="K44" s="50">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>27604.65474613856</v>
       </c>
       <c r="L44" s="50">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>44495.841929342467</v>
       </c>
       <c r="M44" s="50">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>63432.409812423619</v>
       </c>
       <c r="N44" s="50">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>84643.646525986987</v>
       </c>
       <c r="O44" s="50">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>108362.49635683275</v>
       </c>
       <c r="P44" s="50">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>134845.5127563194</v>
       </c>
       <c r="Q44" s="50">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>164375.05641890696</v>
       </c>
       <c r="R44" s="50">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>197261.87970313712</v>
       </c>
       <c r="S44" s="50">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>233847.9681527249</v>
       </c>
       <c r="T44" s="50">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>274509.66624372598</v>
       </c>
       <c r="U44" s="50">
@@ -4264,23 +4268,23 @@
         <v>0.21952095808383221</v>
       </c>
       <c r="H60" s="47">
-        <f t="shared" ref="H60:L60" si="59">H16/G16-1</f>
+        <f t="shared" ref="H60:L60" si="66">H16/G16-1</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="I60" s="47">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="J60" s="47">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="K60" s="47">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="L60" s="47">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
@@ -4301,31 +4305,31 @@
         <v>0.17595982660907117</v>
       </c>
       <c r="F61" s="47">
-        <f t="shared" ref="F61:L61" si="60">F17/E17-1</f>
+        <f t="shared" ref="F61:L61" si="67">F17/E17-1</f>
         <v>6.2263026172846958E-2</v>
       </c>
       <c r="G61" s="47">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>1.6808796273986237E-2</v>
       </c>
       <c r="H61" s="47">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="I61" s="47">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="J61" s="47">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="K61" s="47">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="L61" s="47">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
@@ -4349,13 +4353,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z54"/>
+  <dimension ref="A1:Z56"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB25" sqref="AB25"/>
+      <selection pane="bottomRight" activeCell="X58" sqref="X58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4904,99 +4908,99 @@
         <v>77</v>
       </c>
       <c r="B10" s="9">
-        <f>SUM(B3:B7)/B9</f>
+        <f t="shared" ref="B10:Y10" si="0">SUM(B3:B7)/B9</f>
         <v>23.132352941176471</v>
       </c>
       <c r="C10" s="9">
-        <f>SUM(C3:C7)/C9</f>
+        <f t="shared" si="0"/>
         <v>23.494285714285716</v>
       </c>
       <c r="D10" s="9">
-        <f>SUM(D3:D7)/D9</f>
+        <f t="shared" si="0"/>
         <v>23.48918918918919</v>
       </c>
       <c r="E10" s="9">
-        <f>SUM(E3:E7)/E9</f>
+        <f t="shared" si="0"/>
         <v>22.790000000000003</v>
       </c>
       <c r="F10" s="9">
-        <f>SUM(F3:F7)/F9</f>
+        <f t="shared" si="0"/>
         <v>22.501149425287359</v>
       </c>
       <c r="G10" s="9">
-        <f>SUM(G3:G7)/G9</f>
+        <f t="shared" si="0"/>
         <v>24.196551724137937</v>
       </c>
       <c r="H10" s="9">
-        <f>SUM(H3:H7)/H9</f>
+        <f t="shared" si="0"/>
         <v>25.444444444444443</v>
       </c>
       <c r="I10" s="9">
-        <f>SUM(I3:I7)/I9</f>
+        <f t="shared" si="0"/>
         <v>25.540206185567012</v>
       </c>
       <c r="J10" s="10">
-        <f>SUM(J3:J7)/J9</f>
+        <f t="shared" si="0"/>
         <v>25.597087378640776</v>
       </c>
       <c r="K10" s="9">
-        <f>SUM(K3:K7)/K9</f>
+        <f t="shared" si="0"/>
         <v>25.789814814814818</v>
       </c>
       <c r="L10" s="9">
-        <f>SUM(L3:L7)/L9</f>
+        <f t="shared" si="0"/>
         <v>26.4141592920354</v>
       </c>
       <c r="M10" s="9">
-        <f>SUM(M3:M7)/M9</f>
+        <f t="shared" si="0"/>
         <v>27.150016528925619</v>
       </c>
       <c r="N10" s="10">
-        <f>SUM(N3:N7)/N9</f>
+        <f t="shared" si="0"/>
         <v>28.912937499999998</v>
       </c>
       <c r="O10" s="9">
-        <f>SUM(O3:O7)/O9</f>
+        <f t="shared" si="0"/>
         <v>29.377969924812032</v>
       </c>
       <c r="P10" s="9">
-        <f>SUM(P3:P7)/P9</f>
+        <f t="shared" si="0"/>
         <v>28.566957142857142</v>
       </c>
       <c r="Q10" s="9">
-        <f>SUM(Q3:Q7)/Q9</f>
+        <f t="shared" si="0"/>
         <v>30.121158273381297</v>
       </c>
       <c r="R10" s="10">
-        <f>SUM(R3:R7)/R9</f>
+        <f t="shared" si="0"/>
         <v>29.75</v>
       </c>
       <c r="S10" s="9">
-        <f>SUM(S3:S7)/S9</f>
+        <f t="shared" si="0"/>
         <v>32.388157894736842</v>
       </c>
       <c r="T10" s="9">
-        <f>SUM(T3:T7)/T9</f>
+        <f t="shared" si="0"/>
         <v>33.196202531645568</v>
       </c>
       <c r="U10" s="9">
-        <f>SUM(U3:U7)/U9</f>
+        <f t="shared" si="0"/>
         <v>32.739125748502993</v>
       </c>
       <c r="V10" s="10">
-        <f>SUM(V3:V7)/V9</f>
+        <f t="shared" si="0"/>
         <v>31.517437158469949</v>
       </c>
       <c r="W10" s="9">
-        <f>SUM(W3:W7)/W9</f>
+        <f t="shared" si="0"/>
         <v>31.856404145077722</v>
       </c>
       <c r="X10" s="9">
-        <f>SUM(X3:X7)/X9</f>
+        <f t="shared" si="0"/>
         <v>32.984490879550613</v>
       </c>
       <c r="Y10" s="9">
-        <f>SUM(Y3:Y7)/Y9</f>
+        <f t="shared" si="0"/>
         <v>32.622999116174014</v>
       </c>
     </row>
@@ -5041,99 +5045,99 @@
         <v>4</v>
       </c>
       <c r="B12" s="12">
-        <f>SUM(B6:B7)</f>
+        <f t="shared" ref="B12:Q12" si="1">SUM(B6:B7)</f>
         <v>1399.8</v>
       </c>
       <c r="C12" s="12">
-        <f>SUM(C6:C7)</f>
+        <f t="shared" si="1"/>
         <v>1480.6000000000001</v>
       </c>
       <c r="D12" s="12">
-        <f>SUM(D6:D7)</f>
+        <f t="shared" si="1"/>
         <v>1580.7</v>
       </c>
       <c r="E12" s="12">
-        <f>SUM(E6:E7)</f>
+        <f t="shared" si="1"/>
         <v>1672.3000000000002</v>
       </c>
       <c r="F12" s="13">
-        <f>SUM(F6:F7)</f>
+        <f t="shared" si="1"/>
         <v>1812.9</v>
       </c>
       <c r="G12" s="12">
-        <f>SUM(G6:G7)</f>
+        <f t="shared" si="1"/>
         <v>1966.4</v>
       </c>
       <c r="H12" s="12">
-        <f>SUM(H6:H7)</f>
+        <f t="shared" si="1"/>
         <v>2157.6999999999998</v>
       </c>
       <c r="I12" s="12">
-        <f>SUM(I6:I7)</f>
+        <f t="shared" si="1"/>
         <v>2351</v>
       </c>
       <c r="J12" s="13">
-        <f>SUM(J6:J7)</f>
+        <f t="shared" si="1"/>
         <v>2516.1999999999998</v>
       </c>
       <c r="K12" s="12">
-        <f>SUM(K6:K7)</f>
+        <f t="shared" si="1"/>
         <v>2670.6000000000004</v>
       </c>
       <c r="L12" s="12">
-        <f>SUM(L6:L7)</f>
+        <f t="shared" si="1"/>
         <v>2874.6000000000004</v>
       </c>
       <c r="M12" s="12">
-        <f>SUM(M6:M7)</f>
+        <f t="shared" si="1"/>
         <v>3180</v>
       </c>
       <c r="N12" s="13">
-        <f>SUM(N6:N7)</f>
+        <f t="shared" si="1"/>
         <v>3602.105</v>
       </c>
       <c r="O12" s="12">
-        <f>SUM(O6:O7)</f>
+        <f t="shared" si="1"/>
         <v>3814.366</v>
       </c>
       <c r="P12" s="12">
-        <f>SUM(P6:P7)</f>
+        <f t="shared" si="1"/>
         <v>3910.5969999999998</v>
       </c>
       <c r="Q12" s="12">
-        <f>SUM(Q6:Q7)</f>
+        <f t="shared" si="1"/>
         <v>4101.6840000000002</v>
       </c>
       <c r="R12" s="13">
-        <f>R9*R10</f>
+        <f t="shared" ref="R12:Y12" si="2">R9*R10</f>
         <v>4522</v>
       </c>
       <c r="S12" s="12">
-        <f>S9*S10</f>
+        <f t="shared" si="2"/>
         <v>4923</v>
       </c>
       <c r="T12" s="12">
-        <f>T9*T10</f>
+        <f t="shared" si="2"/>
         <v>5245</v>
       </c>
       <c r="U12" s="12">
-        <f>U9*U10</f>
+        <f t="shared" si="2"/>
         <v>5467.4340000000002</v>
       </c>
       <c r="V12" s="13">
-        <f>V9*V10</f>
+        <f t="shared" si="2"/>
         <v>5767.6910000000007</v>
       </c>
       <c r="W12" s="12">
-        <f>W9*W10</f>
+        <f t="shared" si="2"/>
         <v>6148.2860000000001</v>
       </c>
       <c r="X12" s="12">
-        <f>X9*X10</f>
+        <f t="shared" si="2"/>
         <v>6435.6369999999997</v>
       </c>
       <c r="Y12" s="12">
-        <f>Y9*Y10</f>
+        <f t="shared" si="2"/>
         <v>6644</v>
       </c>
       <c r="Z12" s="11">
@@ -5242,79 +5246,79 @@
         <v>443.40000000000009</v>
       </c>
       <c r="G14" s="9">
-        <f t="shared" ref="G14:L14" si="0">G12-G13</f>
+        <f t="shared" ref="G14:L14" si="3">G12-G13</f>
         <v>493.40000000000009</v>
       </c>
       <c r="H14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>624.89999999999986</v>
       </c>
       <c r="I14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>696.59999999999991</v>
       </c>
       <c r="J14" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>859.19999999999982</v>
       </c>
       <c r="K14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>768.30000000000041</v>
       </c>
       <c r="L14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>881.70000000000027</v>
       </c>
       <c r="M14" s="9">
-        <f t="shared" ref="M14:N14" si="1">M12-M13</f>
+        <f t="shared" ref="M14:N14" si="4">M12-M13</f>
         <v>1073</v>
       </c>
       <c r="N14" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1406.0300000000002</v>
       </c>
       <c r="O14" s="9">
-        <f t="shared" ref="O14" si="2">O12-O13</f>
+        <f t="shared" ref="O14" si="5">O12-O13</f>
         <v>1524.4989999999998</v>
       </c>
       <c r="P14" s="9">
-        <f t="shared" ref="P14:S14" si="3">P12-P13</f>
+        <f t="shared" ref="P14:S14" si="6">P12-P13</f>
         <v>1498.2509999999997</v>
       </c>
       <c r="Q14" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1368.2840000000001</v>
       </c>
       <c r="R14" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1651</v>
       </c>
       <c r="S14" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1917</v>
       </c>
       <c r="T14" s="9">
-        <f t="shared" ref="T14:Y14" si="4">T12-T13</f>
+        <f t="shared" ref="T14:Y14" si="7">T12-T13</f>
         <v>2147</v>
       </c>
       <c r="U14" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2001.4340000000002</v>
       </c>
       <c r="V14" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2167.9900000000007</v>
       </c>
       <c r="W14" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2504.5790000000002</v>
       </c>
       <c r="X14" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2567.8859999999995</v>
       </c>
       <c r="Y14" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2479</v>
       </c>
     </row>
@@ -5574,59 +5578,59 @@
         <v>538.70000000000005</v>
       </c>
       <c r="G18" s="9">
-        <f t="shared" ref="G18:L18" si="5">SUM(G15:G17)</f>
+        <f t="shared" ref="G18:L18" si="8">SUM(G15:G17)</f>
         <v>561.70000000000005</v>
       </c>
       <c r="H18" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>651.1</v>
       </c>
       <c r="I18" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>669</v>
       </c>
       <c r="J18" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>722.5</v>
       </c>
       <c r="K18" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>755.19999999999993</v>
       </c>
       <c r="L18" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>783.09999999999991</v>
       </c>
       <c r="M18" s="9">
-        <f t="shared" ref="M18:N18" si="6">SUM(M15:M17)</f>
+        <f t="shared" ref="M18:N18" si="9">SUM(M15:M17)</f>
         <v>933.09799999999996</v>
       </c>
       <c r="N18" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1058.203</v>
       </c>
       <c r="O18" s="9">
-        <f t="shared" ref="O18" si="7">SUM(O15:O17)</f>
+        <f t="shared" ref="O18" si="10">SUM(O15:O17)</f>
         <v>1155.19</v>
       </c>
       <c r="P18" s="9">
-        <f t="shared" ref="P18:S18" si="8">SUM(P15:P17)</f>
+        <f t="shared" ref="P18:S18" si="11">SUM(P15:P17)</f>
         <v>1106.3600000000001</v>
       </c>
       <c r="Q18" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1237.674</v>
       </c>
       <c r="R18" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1191</v>
       </c>
       <c r="S18" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1211</v>
       </c>
       <c r="T18" s="9">
-        <f t="shared" ref="T18" si="9">SUM(T15:T17)</f>
+        <f t="shared" ref="T18" si="12">SUM(T15:T17)</f>
         <v>1167</v>
       </c>
       <c r="U18" s="9">
@@ -5638,15 +5642,15 @@
         <v>1210</v>
       </c>
       <c r="W18" s="9">
-        <f t="shared" ref="W18:X18" si="10">SUM(W15:W17)</f>
+        <f t="shared" ref="W18:X18" si="13">SUM(W15:W17)</f>
         <v>1146</v>
       </c>
       <c r="X18" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1254</v>
       </c>
       <c r="Y18" s="9">
-        <f t="shared" ref="Y18" si="11">SUM(Y15:Y17)</f>
+        <f t="shared" ref="Y18" si="14">SUM(Y15:Y17)</f>
         <v>1526</v>
       </c>
     </row>
@@ -5675,11 +5679,11 @@
         <v>-95.299999999999955</v>
       </c>
       <c r="G19" s="9">
-        <f t="shared" ref="G19:H19" si="12">G14-G18</f>
+        <f t="shared" ref="G19:H19" si="15">G14-G18</f>
         <v>-68.299999999999955</v>
       </c>
       <c r="H19" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-26.200000000000159</v>
       </c>
       <c r="I19" s="9">
@@ -5699,55 +5703,55 @@
         <v>98.600000000000364</v>
       </c>
       <c r="M19" s="9">
-        <f t="shared" ref="M19" si="13">M14-M18</f>
+        <f t="shared" ref="M19" si="16">M14-M18</f>
         <v>139.90200000000004</v>
       </c>
       <c r="N19" s="10">
-        <f t="shared" ref="N19:U19" si="14">N14-N18</f>
+        <f t="shared" ref="N19:U19" si="17">N14-N18</f>
         <v>347.82700000000023</v>
       </c>
       <c r="O19" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>369.30899999999974</v>
       </c>
       <c r="P19" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>391.89099999999962</v>
       </c>
       <c r="Q19" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>130.61000000000013</v>
       </c>
       <c r="R19" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>460</v>
       </c>
       <c r="S19" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>706</v>
       </c>
       <c r="T19" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>980</v>
       </c>
       <c r="U19" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>458.4340000000002</v>
       </c>
       <c r="V19" s="10">
-        <f t="shared" ref="V19:W19" si="15">V14-V18</f>
+        <f t="shared" ref="V19:W19" si="18">V14-V18</f>
         <v>957.99000000000069</v>
       </c>
       <c r="W19" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1358.5790000000002</v>
       </c>
       <c r="X19" s="9">
-        <f t="shared" ref="X19:Y19" si="16">X14-X18</f>
+        <f t="shared" ref="X19:Y19" si="19">X14-X18</f>
         <v>1313.8859999999995</v>
       </c>
       <c r="Y19" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>953</v>
       </c>
     </row>
@@ -5877,79 +5881,79 @@
         <v>-104.89999999999995</v>
       </c>
       <c r="G21" s="9">
-        <f t="shared" ref="G21:I21" si="17">G19+G20</f>
+        <f t="shared" ref="G21:I21" si="20">G19+G20</f>
         <v>-87.499999999999957</v>
       </c>
       <c r="H21" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-53.100000000000158</v>
       </c>
       <c r="I21" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-35.900000000000091</v>
       </c>
       <c r="J21" s="10">
-        <f t="shared" ref="J21:K21" si="18">J19+J20</f>
+        <f t="shared" ref="J21:K21" si="21">J19+J20</f>
         <v>103.59999999999982</v>
       </c>
       <c r="K21" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>-100.59999999999951</v>
       </c>
       <c r="L21" s="9">
-        <f t="shared" ref="L21:N21" si="19">L19+L20</f>
+        <f t="shared" ref="L21:N21" si="22">L19+L20</f>
         <v>6.3000000000003666</v>
       </c>
       <c r="M21" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>25.929000000000045</v>
       </c>
       <c r="N21" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>200.86500000000024</v>
       </c>
       <c r="O21" s="9">
-        <f t="shared" ref="O21" si="20">O19+O20</f>
+        <f t="shared" ref="O21" si="23">O19+O20</f>
         <v>335.73199999999974</v>
       </c>
       <c r="P21" s="9">
-        <f t="shared" ref="P21:S21" si="21">P19+P20</f>
+        <f t="shared" ref="P21:S21" si="24">P19+P20</f>
         <v>290.03299999999962</v>
       </c>
       <c r="Q21" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>34.239000000000146</v>
       </c>
       <c r="R21" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>400</v>
       </c>
       <c r="S21" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>501</v>
       </c>
       <c r="T21" s="9">
-        <f>T19+T20</f>
+        <f t="shared" ref="T21:Y21" si="25">T19+T20</f>
         <v>1013</v>
       </c>
       <c r="U21" s="9">
-        <f>U19+U20</f>
+        <f t="shared" si="25"/>
         <v>149.4340000000002</v>
       </c>
       <c r="V21" s="10">
-        <f>V19+V20</f>
+        <f t="shared" si="25"/>
         <v>795.99000000000069</v>
       </c>
       <c r="W21" s="9">
-        <f>W19+W20</f>
+        <f t="shared" si="25"/>
         <v>1036.5790000000002</v>
       </c>
       <c r="X21" s="9">
-        <f>X19+X20</f>
+        <f t="shared" si="25"/>
         <v>860.88599999999951</v>
       </c>
       <c r="Y21" s="9">
-        <f>Y19+Y20</f>
+        <f t="shared" si="25"/>
         <v>505</v>
       </c>
     </row>
@@ -6055,11 +6059,11 @@
         <v>-117.09999999999995</v>
       </c>
       <c r="G23" s="12">
-        <f t="shared" ref="G23:H23" si="22">G21-G22</f>
+        <f t="shared" ref="G23:H23" si="26">G21-G22</f>
         <v>-97.899999999999963</v>
       </c>
       <c r="H23" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>-80.700000000000159</v>
       </c>
       <c r="I23" s="12">
@@ -6079,55 +6083,55 @@
         <v>19.600000000000367</v>
       </c>
       <c r="M23" s="12">
-        <f t="shared" ref="M23" si="23">M21-M22</f>
+        <f t="shared" ref="M23" si="27">M21-M22</f>
         <v>80.116000000000042</v>
       </c>
       <c r="N23" s="13">
-        <f t="shared" ref="N23:V23" si="24">N21-N22</f>
+        <f t="shared" ref="N23:V23" si="28">N21-N22</f>
         <v>191.37300000000025</v>
       </c>
       <c r="O23" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>291.44499999999977</v>
       </c>
       <c r="P23" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>314.05799999999959</v>
       </c>
       <c r="Q23" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>48.777000000000143</v>
       </c>
       <c r="R23" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>344</v>
       </c>
       <c r="S23" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>271</v>
       </c>
       <c r="T23" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>666</v>
       </c>
       <c r="U23" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>587.4340000000002</v>
       </c>
       <c r="V23" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>708.99000000000069</v>
       </c>
       <c r="W23" s="12">
-        <f t="shared" ref="W23:X23" si="25">W21-W22</f>
+        <f t="shared" ref="W23:X23" si="29">W21-W22</f>
         <v>721.57900000000018</v>
       </c>
       <c r="X23" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>789.88599999999951</v>
       </c>
       <c r="Y23" s="12">
-        <f t="shared" ref="Y23" si="26">Y21-Y22</f>
+        <f t="shared" ref="Y23" si="30">Y21-Y22</f>
         <v>541</v>
       </c>
     </row>
@@ -6136,99 +6140,99 @@
         <v>16</v>
       </c>
       <c r="B24" s="14">
-        <f t="shared" ref="B24:H24" si="27">IFERROR(B23/B25,0)</f>
+        <f t="shared" ref="B24:H24" si="31">IFERROR(B23/B25,0)</f>
         <v>-0.34416781927155404</v>
       </c>
       <c r="C24" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>-0.31559633027522915</v>
       </c>
       <c r="D24" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>-0.29250457038391231</v>
       </c>
       <c r="E24" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>-0.24554997717936955</v>
       </c>
       <c r="F24" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>-0.26741265129024883</v>
       </c>
       <c r="G24" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>-0.22346496233736579</v>
       </c>
       <c r="H24" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>-0.18412046543463417</v>
       </c>
       <c r="I24" s="14">
-        <f t="shared" ref="I24:L24" si="28">IFERROR(I23/I25,0)</f>
+        <f t="shared" ref="I24:L24" si="32">IFERROR(I23/I25,0)</f>
         <v>-0.1350000000000002</v>
       </c>
       <c r="J24" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.13022002694207416</v>
       </c>
       <c r="K24" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>-0.10981622590766363</v>
       </c>
       <c r="L24" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>4.3818466353678441E-2</v>
       </c>
       <c r="M24" s="14">
-        <f t="shared" ref="M24:N24" si="29">IFERROR(M23/M25,0)</f>
+        <f t="shared" ref="M24:N24" si="33">IFERROR(M23/M25,0)</f>
         <v>0.17877369226718326</v>
       </c>
       <c r="N24" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.42493433016771121</v>
       </c>
       <c r="O24" s="14">
-        <f t="shared" ref="O24" si="30">IFERROR(O23/O25,0)</f>
+        <f t="shared" ref="O24" si="34">IFERROR(O23/O25,0)</f>
         <v>0.64542954078378512</v>
       </c>
       <c r="P24" s="14">
-        <f t="shared" ref="P24:S24" si="31">IFERROR(P23/P25,0)</f>
+        <f t="shared" ref="P24:S24" si="35">IFERROR(P23/P25,0)</f>
         <v>0.69494312033793582</v>
       </c>
       <c r="Q24" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.10812518287979177</v>
       </c>
       <c r="R24" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.76119330326914814</v>
       </c>
       <c r="S24" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.59929897499972362</v>
       </c>
       <c r="T24" s="14">
-        <f t="shared" ref="T24:V24" si="32">IFERROR(T23/T25,0)</f>
+        <f t="shared" ref="T24:V24" si="36">IFERROR(T23/T25,0)</f>
         <v>1.474913188292821</v>
       </c>
       <c r="U24" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>1.3014553567274527</v>
       </c>
       <c r="V24" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>1.5668495051868105</v>
       </c>
       <c r="W24" s="14">
-        <f t="shared" ref="W24:X24" si="33">IFERROR(W23/W25,0)</f>
+        <f t="shared" ref="W24:X24" si="37">IFERROR(W23/W25,0)</f>
         <v>1.5895736267609517</v>
       </c>
       <c r="X24" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>1.7356774953415592</v>
       </c>
       <c r="Y24" s="14">
-        <f t="shared" ref="Y24" si="34">IFERROR(Y23/Y25,0)</f>
+        <f t="shared" ref="Y24" si="38">IFERROR(Y23/Y25,0)</f>
         <v>1.1882719099988359</v>
       </c>
     </row>
@@ -6336,99 +6340,99 @@
         <v>19</v>
       </c>
       <c r="B27" s="20">
-        <f t="shared" ref="B27:Q27" si="35">IFERROR(B14/B12,0)</f>
+        <f t="shared" ref="B27:Q27" si="39">IFERROR(B14/B12,0)</f>
         <v>0.25246463780540068</v>
       </c>
       <c r="C27" s="20">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.24240172902877216</v>
       </c>
       <c r="D27" s="20">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.25735433668627822</v>
       </c>
       <c r="E27" s="20">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.25294504574538074</v>
       </c>
       <c r="F27" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.24458050637100781</v>
       </c>
       <c r="G27" s="20">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.25091537835638733</v>
       </c>
       <c r="H27" s="20">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.28961394077026459</v>
       </c>
       <c r="I27" s="20">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.29629944704381111</v>
       </c>
       <c r="J27" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.34146729194817577</v>
       </c>
       <c r="K27" s="20">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.28768815996405311</v>
       </c>
       <c r="L27" s="20">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.30672093508662079</v>
       </c>
       <c r="M27" s="20">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.33742138364779872</v>
       </c>
       <c r="N27" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.39033565095964728</v>
       </c>
       <c r="O27" s="20">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.39967297317562073</v>
       </c>
       <c r="P27" s="20">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.38312590123707452</v>
       </c>
       <c r="Q27" s="20">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.33359078856391666</v>
       </c>
       <c r="R27" s="21">
-        <f t="shared" ref="R27:U27" si="36">IFERROR(R14/R12,0)</f>
+        <f t="shared" ref="R27:U27" si="40">IFERROR(R14/R12,0)</f>
         <v>0.36510393631136667</v>
       </c>
       <c r="S27" s="20">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0.38939670932358317</v>
       </c>
       <c r="T27" s="20">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0.40934223069590087</v>
       </c>
       <c r="U27" s="20">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0.36606459264071595</v>
       </c>
       <c r="V27" s="21">
-        <f t="shared" ref="V27:W27" si="37">IFERROR(V14/V12,0)</f>
+        <f t="shared" ref="V27:W27" si="41">IFERROR(V14/V12,0)</f>
         <v>0.37588525460188493</v>
       </c>
       <c r="W27" s="20">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0.40736214938602405</v>
       </c>
       <c r="X27" s="20">
-        <f t="shared" ref="X27:Y27" si="38">IFERROR(X14/X12,0)</f>
+        <f t="shared" ref="X27:Y27" si="42">IFERROR(X14/X12,0)</f>
         <v>0.39901038545213158</v>
       </c>
       <c r="Y27" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0.37311860325105356</v>
       </c>
     </row>
@@ -6437,79 +6441,79 @@
         <v>20</v>
       </c>
       <c r="B28" s="22">
-        <f t="shared" ref="B28:Q28" si="39">IFERROR(B19/B12,0)</f>
+        <f t="shared" ref="B28:Q28" si="43">IFERROR(B19/B12,0)</f>
         <v>-5.4079154164880815E-2</v>
       </c>
       <c r="C28" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-6.0178306092124746E-2</v>
       </c>
       <c r="D28" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-5.3014487252483082E-2</v>
       </c>
       <c r="E28" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-5.4356275787836958E-2</v>
       </c>
       <c r="F28" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-5.2567709195212066E-2</v>
       </c>
       <c r="G28" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-3.4733523189585003E-2</v>
       </c>
       <c r="H28" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-1.2142559206562618E-2</v>
       </c>
       <c r="I28" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1.1739685240323228E-2</v>
       </c>
       <c r="J28" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>5.4327954852555371E-2</v>
       </c>
       <c r="K28" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>4.9052647345167663E-3</v>
       </c>
       <c r="L28" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>3.4300424406874121E-2</v>
       </c>
       <c r="M28" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>4.3994339622641522E-2</v>
       </c>
       <c r="N28" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>9.6562149076720477E-2</v>
       </c>
       <c r="O28" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>9.6820546324081047E-2</v>
       </c>
       <c r="P28" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0.10021257623835943</v>
       </c>
       <c r="Q28" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>3.1843018623570252E-2</v>
       </c>
       <c r="R28" s="23">
-        <f t="shared" ref="R28:T28" si="40">IFERROR(R19/R12,0)</f>
+        <f t="shared" ref="R28:T28" si="44">IFERROR(R19/R12,0)</f>
         <v>0.10172490048651039</v>
       </c>
       <c r="S28" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0.14340849075766809</v>
       </c>
       <c r="T28" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0.18684461391801716</v>
       </c>
       <c r="U28" s="22">
@@ -6521,15 +6525,15 @@
         <v>0.16609592989638325</v>
       </c>
       <c r="W28" s="22">
-        <f t="shared" ref="W28:X28" si="41">IFERROR(W19/W12,0)</f>
+        <f t="shared" ref="W28:X28" si="45">IFERROR(W19/W12,0)</f>
         <v>0.22096873827925378</v>
       </c>
       <c r="X28" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0.2041578790102673</v>
       </c>
       <c r="Y28" s="22">
-        <f t="shared" ref="Y28" si="42">IFERROR(Y19/Y12,0)</f>
+        <f t="shared" ref="Y28" si="46">IFERROR(Y19/Y12,0)</f>
         <v>0.14343768813967489</v>
       </c>
     </row>
@@ -6538,79 +6542,79 @@
         <v>21</v>
       </c>
       <c r="B29" s="22">
-        <f t="shared" ref="B29:Q29" si="43">IFERROR(B22/B21,0)</f>
+        <f t="shared" ref="B29:Q29" si="47">IFERROR(B22/B21,0)</f>
         <v>-0.1092124814264486</v>
       </c>
       <c r="C29" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-0.11417004048583003</v>
       </c>
       <c r="D29" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-0.1111111111111111</v>
       </c>
       <c r="E29" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.17230769230769263</v>
       </c>
       <c r="F29" s="23">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-0.11630123927550053</v>
       </c>
       <c r="G29" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-0.11885714285714293</v>
       </c>
       <c r="H29" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-0.51977401129943346</v>
       </c>
       <c r="I29" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-0.65459610027854986</v>
       </c>
       <c r="J29" s="23">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.44015444015444094</v>
       </c>
       <c r="K29" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.51292246520875007</v>
       </c>
       <c r="L29" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-2.1111111111109881</v>
       </c>
       <c r="M29" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-2.0898222067954761</v>
       </c>
       <c r="N29" s="23">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>4.7255619445896443E-2</v>
       </c>
       <c r="O29" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.13191176295378465</v>
       </c>
       <c r="P29" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-8.2835401488796201E-2</v>
       </c>
       <c r="Q29" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-0.42460352229913079</v>
       </c>
       <c r="R29" s="23">
-        <f t="shared" ref="R29:T29" si="44">IFERROR(R22/R21,0)</f>
+        <f t="shared" ref="R29:T29" si="48">IFERROR(R22/R21,0)</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="S29" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0.45908183632734528</v>
       </c>
       <c r="T29" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0.34254689042448172</v>
       </c>
       <c r="U29" s="22">
@@ -6622,15 +6626,15 @@
         <v>0.10929785550069715</v>
       </c>
       <c r="W29" s="22">
-        <f t="shared" ref="W29:X29" si="45">IFERROR(W22/W21,0)</f>
+        <f t="shared" ref="W29:X29" si="49">IFERROR(W22/W21,0)</f>
         <v>0.30388421914779284</v>
       </c>
       <c r="X29" s="22">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>8.2473172986899587E-2</v>
       </c>
       <c r="Y29" s="22">
-        <f t="shared" ref="Y29" si="46">IFERROR(Y22/Y21,0)</f>
+        <f t="shared" ref="Y29" si="50">IFERROR(Y22/Y21,0)</f>
         <v>-7.1287128712871281E-2</v>
       </c>
     </row>
@@ -6661,7 +6665,7 @@
         <v>0.32811022558422254</v>
       </c>
       <c r="H31" s="16">
-        <f t="shared" ref="H31" si="47">IFERROR((H12/D12)-1,0)</f>
+        <f t="shared" ref="H31" si="51">IFERROR((H12/D12)-1,0)</f>
         <v>0.36502815208451933</v>
       </c>
       <c r="I31" s="16">
@@ -6673,7 +6677,7 @@
         <v>0.38794197142699516</v>
       </c>
       <c r="K31" s="16">
-        <f t="shared" ref="K31" si="48">IFERROR((K12/G12)-1,0)</f>
+        <f t="shared" ref="K31" si="52">IFERROR((K12/G12)-1,0)</f>
         <v>0.3581163547599675</v>
       </c>
       <c r="L31" s="16">
@@ -6681,7 +6685,7 @@
         <v>0.33225193493071359</v>
       </c>
       <c r="M31" s="16">
-        <f t="shared" ref="M31" si="49">IFERROR((M12/I12)-1,0)</f>
+        <f t="shared" ref="M31" si="53">IFERROR((M12/I12)-1,0)</f>
         <v>0.3526159081242024</v>
       </c>
       <c r="N31" s="17">
@@ -6689,7 +6693,7 @@
         <v>0.43156545584611727</v>
       </c>
       <c r="O31" s="16">
-        <f t="shared" ref="O31" si="50">IFERROR((O12/K12)-1,0)</f>
+        <f t="shared" ref="O31" si="54">IFERROR((O12/K12)-1,0)</f>
         <v>0.42828053620909134</v>
       </c>
       <c r="P31" s="16">
@@ -6705,35 +6709,35 @@
         <v>0.25537706424437934</v>
       </c>
       <c r="S31" s="16">
-        <f t="shared" ref="S31" si="51">IFERROR((S12/O12)-1,0)</f>
+        <f t="shared" ref="S31" si="55">IFERROR((S12/O12)-1,0)</f>
         <v>0.29064699087607226</v>
       </c>
       <c r="T31" s="16">
-        <f>IFERROR((T12/P12)-1,0)</f>
+        <f t="shared" ref="T31:Z31" si="56">IFERROR((T12/P12)-1,0)</f>
         <v>0.34122743918639542</v>
       </c>
       <c r="U31" s="16">
-        <f>IFERROR((U12/Q12)-1,0)</f>
+        <f t="shared" si="56"/>
         <v>0.33297299353143739</v>
       </c>
       <c r="V31" s="17">
-        <f>IFERROR((V12/R12)-1,0)</f>
+        <f t="shared" si="56"/>
         <v>0.27547346306943843</v>
       </c>
       <c r="W31" s="16">
-        <f>IFERROR((W12/S12)-1,0)</f>
+        <f t="shared" si="56"/>
         <v>0.24889010765793218</v>
       </c>
       <c r="X31" s="16">
-        <f>IFERROR((X12/T12)-1,0)</f>
+        <f t="shared" si="56"/>
         <v>0.22700419447092468</v>
       </c>
       <c r="Y31" s="16">
-        <f>IFERROR((Y12/U12)-1,0)</f>
+        <f t="shared" si="56"/>
         <v>0.21519528173545388</v>
       </c>
       <c r="Z31" s="16">
-        <f>IFERROR((Z12/V12)-1,0)</f>
+        <f t="shared" si="56"/>
         <v>0.23602321969051387</v>
       </c>
     </row>
@@ -6746,83 +6750,83 @@
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
       <c r="F32" s="19">
-        <f t="shared" ref="F32:Q34" si="52">F15/B15-1</f>
+        <f t="shared" ref="F32:Q34" si="57">F15/B15-1</f>
         <v>0.42208245981830883</v>
       </c>
       <c r="G32" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.33741935483870966</v>
       </c>
       <c r="H32" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.25800815375655217</v>
       </c>
       <c r="I32" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.24502212389380529</v>
       </c>
       <c r="J32" s="19">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.26339066339066353</v>
       </c>
       <c r="K32" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.28798842257597679</v>
       </c>
       <c r="L32" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.18148148148148135</v>
       </c>
       <c r="M32" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.21435362061306096</v>
       </c>
       <c r="N32" s="19">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.16970050563982886</v>
       </c>
       <c r="O32" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.18806367041198513</v>
       </c>
       <c r="P32" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.28144984326018818</v>
       </c>
       <c r="Q32" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.21378374324586336</v>
       </c>
       <c r="R32" s="19">
-        <f t="shared" ref="R32:R34" si="53">R15/N15-1</f>
+        <f t="shared" ref="R32:R34" si="58">R15/N15-1</f>
         <v>0.2369899910218467</v>
       </c>
       <c r="S32" s="18">
-        <f t="shared" ref="S32:S34" si="54">S15/O15-1</f>
+        <f t="shared" ref="S32:S34" si="59">S15/O15-1</f>
         <v>0.20739061766068856</v>
       </c>
       <c r="T32" s="18">
-        <f t="shared" ref="T32:T34" si="55">T15/P15-1</f>
+        <f t="shared" ref="T32:T34" si="60">T15/P15-1</f>
         <v>0.16198712029012974</v>
       </c>
       <c r="U32" s="18">
-        <f t="shared" ref="U32:Y34" si="56">U15/Q15-1</f>
+        <f t="shared" ref="U32:Y34" si="61">U15/Q15-1</f>
         <v>0.23271115076147808</v>
       </c>
       <c r="V32" s="19">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>0.22043010752688175</v>
       </c>
       <c r="W32" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>0.13577023498694518</v>
       </c>
       <c r="X32" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>0.1947368421052631</v>
       </c>
       <c r="Y32" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>0.19070904645476783</v>
       </c>
     </row>
@@ -6835,83 +6839,83 @@
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
       <c r="F33" s="19">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>6.8859198355601281E-2</v>
       </c>
       <c r="G33" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>9.5890410958904049E-2</v>
       </c>
       <c r="H33" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.35511773185968298</v>
       </c>
       <c r="I33" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.27130745203034357</v>
       </c>
       <c r="J33" s="19">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.30384615384615388</v>
       </c>
       <c r="K33" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.26990740740740748</v>
       </c>
       <c r="L33" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.10780141843971625</v>
       </c>
       <c r="M33" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.47398736398736419</v>
       </c>
       <c r="N33" s="19">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.76704277286135691</v>
       </c>
       <c r="O33" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.9204520597885526</v>
       </c>
       <c r="P33" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.39330665813060195</v>
       </c>
       <c r="Q33" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.73919307327969053</v>
       </c>
       <c r="R33" s="19">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>0.28750349524854868</v>
       </c>
       <c r="S33" s="18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>0.14469038308212157</v>
       </c>
       <c r="T33" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>0.27277614532622363</v>
       </c>
       <c r="U33" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>0.20352431351876832</v>
       </c>
       <c r="V33" s="19">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>-0.18314424635332249</v>
       </c>
       <c r="W33" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>-0.28026533996683245</v>
       </c>
       <c r="X33" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>-4.6931407942238268E-2</v>
       </c>
       <c r="Y33" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>-0.13196814562002279</v>
       </c>
     </row>
@@ -6924,83 +6928,83 @@
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
       <c r="F34" s="19">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.39168490153172852</v>
       </c>
       <c r="G34" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.44316996871741399</v>
       </c>
       <c r="H34" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.38176895306859193</v>
       </c>
       <c r="I34" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.45871559633027514</v>
       </c>
       <c r="J34" s="19">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.52672955974842761</v>
       </c>
       <c r="K34" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.54552023121387272</v>
       </c>
       <c r="L34" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.40757674722403658</v>
       </c>
       <c r="M34" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.50822641509433963</v>
       </c>
       <c r="N34" s="19">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.43280638516992798</v>
       </c>
       <c r="O34" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.45487143525011686</v>
       </c>
       <c r="P34" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.59658932714617174</v>
       </c>
       <c r="Q34" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-0.26803943154523613</v>
       </c>
       <c r="R34" s="19">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>-0.27403675099101166</v>
       </c>
       <c r="S34" s="18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>-0.2769853179818571</v>
       </c>
       <c r="T34" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>-0.32280237745774776</v>
       </c>
       <c r="U34" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>0.45274312083404555</v>
       </c>
       <c r="V34" s="19">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>0.24752475247524752</v>
       </c>
       <c r="W34" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>0.23111111111111104</v>
       </c>
       <c r="X34" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>0.16738197424892709</v>
       </c>
       <c r="Y34" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>8.2352941176470518E-2</v>
       </c>
     </row>
@@ -7037,23 +7041,23 @@
         <v>-299.79999999999973</v>
       </c>
       <c r="G36" s="12">
-        <f t="shared" ref="G36:K36" si="57">G37-G38</f>
+        <f t="shared" ref="G36:K36" si="62">G37-G38</f>
         <v>-538.79999999999995</v>
       </c>
       <c r="H36" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>-1030.7</v>
       </c>
       <c r="I36" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>-1630.6000000000001</v>
       </c>
       <c r="J36" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>-2024.2000000000003</v>
       </c>
       <c r="K36" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>-2671.7</v>
       </c>
       <c r="L36" s="12">
@@ -7061,11 +7065,11 @@
         <v>-3142.2999999999997</v>
       </c>
       <c r="M36" s="12">
-        <f t="shared" ref="M36:N36" si="58">M37-M38</f>
+        <f t="shared" ref="M36:N36" si="63">M37-M38</f>
         <v>-3677</v>
       </c>
       <c r="N36" s="13">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>-3948.7069999999994</v>
       </c>
       <c r="O36" s="12">
@@ -7081,35 +7085,35 @@
         <v>-6565.5750000000007</v>
       </c>
       <c r="R36" s="13">
-        <f t="shared" ref="R36" si="59">R37-R38</f>
+        <f t="shared" ref="R36" si="64">R37-R38</f>
         <v>-6956</v>
       </c>
       <c r="S36" s="12">
-        <f>S37-S38</f>
+        <f t="shared" ref="S36:Y36" si="65">S37-S38</f>
         <v>-7590</v>
       </c>
       <c r="T36" s="12">
-        <f>T37-T38</f>
+        <f t="shared" si="65"/>
         <v>-7991</v>
       </c>
       <c r="U36" s="12">
-        <f>U37-U38</f>
+        <f t="shared" si="65"/>
         <v>-9741</v>
       </c>
       <c r="V36" s="13">
-        <f>V37-V38</f>
+        <f t="shared" si="65"/>
         <v>-9518</v>
       </c>
       <c r="W36" s="12">
-        <f>W37-W38</f>
+        <f t="shared" si="65"/>
         <v>-8641</v>
       </c>
       <c r="X36" s="12">
-        <f>X37-X38</f>
+        <f t="shared" si="65"/>
         <v>-7655</v>
       </c>
       <c r="Y36" s="12">
-        <f>Y37-Y38</f>
+        <f t="shared" si="65"/>
         <v>-8103.4500000000007</v>
       </c>
     </row>
@@ -7513,87 +7517,87 @@
       <c r="C47" s="49"/>
       <c r="D47" s="49"/>
       <c r="E47" s="12">
-        <f t="shared" ref="E47:Q47" si="60">SUM(B23:E23)</f>
+        <f t="shared" ref="E47:Q47" si="66">SUM(B23:E23)</f>
         <v>-522.49999999999977</v>
       </c>
       <c r="F47" s="13">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>-490.29999999999961</v>
       </c>
       <c r="G47" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>-450.59999999999968</v>
       </c>
       <c r="H47" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>-403.29999999999984</v>
       </c>
       <c r="I47" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>-355.10000000000014</v>
       </c>
       <c r="J47" s="13">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>-180.0000000000004</v>
       </c>
       <c r="K47" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>-131.09999999999994</v>
       </c>
       <c r="L47" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>-30.799999999999411</v>
       </c>
       <c r="M47" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>108.71600000000072</v>
       </c>
       <c r="N47" s="13">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>242.08900000000114</v>
       </c>
       <c r="O47" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>582.53400000000033</v>
       </c>
       <c r="P47" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>876.99199999999951</v>
       </c>
       <c r="Q47" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>845.65299999999968</v>
       </c>
       <c r="R47" s="13">
-        <f t="shared" ref="R47" si="61">SUM(O23:R23)</f>
+        <f t="shared" ref="R47" si="67">SUM(O23:R23)</f>
         <v>998.27999999999952</v>
       </c>
       <c r="S47" s="12">
-        <f t="shared" ref="S47" si="62">SUM(P23:S23)</f>
+        <f t="shared" ref="S47" si="68">SUM(P23:S23)</f>
         <v>977.83499999999981</v>
       </c>
       <c r="T47" s="12">
-        <f t="shared" ref="T47" si="63">SUM(Q23:T23)</f>
+        <f t="shared" ref="T47" si="69">SUM(Q23:T23)</f>
         <v>1329.777</v>
       </c>
       <c r="U47" s="12">
-        <f t="shared" ref="U47:Y47" si="64">SUM(R23:U23)</f>
+        <f t="shared" ref="U47:Y47" si="70">SUM(R23:U23)</f>
         <v>1868.4340000000002</v>
       </c>
       <c r="V47" s="13">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>2233.4240000000009</v>
       </c>
       <c r="W47" s="12">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>2684.0030000000011</v>
       </c>
       <c r="X47" s="12">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>2807.8890000000006</v>
       </c>
       <c r="Y47" s="12">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>2761.4550000000004</v>
       </c>
     </row>
@@ -7763,79 +7767,79 @@
         <v>0.27941176470588225</v>
       </c>
       <c r="G53" s="18">
-        <f t="shared" ref="G53:Q53" si="65">G9/C9-1</f>
+        <f t="shared" ref="G53:Q53" si="71">G9/C9-1</f>
         <v>0.24285714285714288</v>
       </c>
       <c r="H53" s="18">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0.21621621621621623</v>
       </c>
       <c r="I53" s="18">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0.21249999999999991</v>
       </c>
       <c r="J53" s="19">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0.18390804597701149</v>
       </c>
       <c r="K53" s="18">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0.24137931034482762</v>
       </c>
       <c r="L53" s="18">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0.25555555555555554</v>
       </c>
       <c r="M53" s="18">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0.24742268041237114</v>
       </c>
       <c r="N53" s="19">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0.24271844660194164</v>
       </c>
       <c r="O53" s="18">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0.2314814814814814</v>
       </c>
       <c r="P53" s="18">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0.23893805309734506</v>
       </c>
       <c r="Q53" s="18">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0.14876033057851235</v>
       </c>
       <c r="R53" s="19">
-        <f t="shared" ref="R53:R54" si="66">R9/N9-1</f>
+        <f t="shared" ref="R53:R54" si="72">R9/N9-1</f>
         <v>0.1875</v>
       </c>
       <c r="S53" s="18">
-        <f t="shared" ref="S53:S54" si="67">S9/O9-1</f>
+        <f t="shared" ref="S53:S54" si="73">S9/O9-1</f>
         <v>0.14285714285714279</v>
       </c>
       <c r="T53" s="18">
-        <f t="shared" ref="T53:T54" si="68">T9/P9-1</f>
+        <f t="shared" ref="T53:T54" si="74">T9/P9-1</f>
         <v>0.12857142857142856</v>
       </c>
       <c r="U53" s="18">
-        <f t="shared" ref="U53:Z54" si="69">U9/Q9-1</f>
+        <f t="shared" ref="U53:Y54" si="75">U9/Q9-1</f>
         <v>0.20143884892086339</v>
       </c>
       <c r="V53" s="19">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>0.20394736842105265</v>
       </c>
       <c r="W53" s="18">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>0.26973684210526305</v>
       </c>
       <c r="X53" s="18">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>0.23487974683544288</v>
       </c>
       <c r="Y53" s="18">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>0.21952095808383221</v>
       </c>
       <c r="Z53" s="18"/>
@@ -7853,82 +7857,160 @@
         <v>-2.7286610985670423E-2</v>
       </c>
       <c r="G54" s="18">
-        <f t="shared" ref="G54:Q54" si="70">G10/C10-1</f>
+        <f t="shared" ref="G54:Q54" si="76">G10/C10-1</f>
         <v>2.9890928304545428E-2</v>
       </c>
       <c r="H54" s="18">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>8.3240644856108936E-2</v>
       </c>
       <c r="I54" s="18">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>0.12067600638731935</v>
       </c>
       <c r="J54" s="19">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>0.13759021349701017</v>
       </c>
       <c r="K54" s="18">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>6.5846700341498643E-2</v>
       </c>
       <c r="L54" s="18">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>3.8111063879120666E-2</v>
       </c>
       <c r="M54" s="18">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>6.3030436467984563E-2</v>
       </c>
       <c r="N54" s="19">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>0.12954013369998107</v>
       </c>
       <c r="O54" s="18">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>0.13913070472828748</v>
       </c>
       <c r="P54" s="18">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>8.1501660795650244E-2</v>
       </c>
       <c r="Q54" s="18">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>0.10943425177256239</v>
       </c>
       <c r="R54" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>2.895113995248666E-2</v>
       </c>
       <c r="S54" s="18">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0.10246412456779286</v>
       </c>
       <c r="T54" s="18">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>0.16204894926815538</v>
       </c>
       <c r="U54" s="18">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>8.6914568535541692E-2</v>
       </c>
       <c r="V54" s="19">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>5.940965238554452E-2</v>
       </c>
       <c r="W54" s="18">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>-1.6418153554374593E-2</v>
       </c>
       <c r="X54" s="18">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>-6.3775864692092732E-3</v>
       </c>
       <c r="Y54" s="18">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>-3.5470291180358382E-3</v>
       </c>
       <c r="Z54" s="18"/>
+    </row>
+    <row r="56" spans="1:26" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="75"/>
+      <c r="I56" s="46">
+        <f>(SUM(F12:I12)/E9)/(SUM(B12:E12)/E9)</f>
+        <v>1.351289659895001</v>
+      </c>
+      <c r="J56" s="75">
+        <f>(SUM(G12:J12)/F9)/(SUM(C12:F12)/F9)</f>
+        <v>1.3734514626136101</v>
+      </c>
+      <c r="K56" s="46">
+        <f>(SUM(H12:K12)/G9)/(SUM(D12:G12)/G9)</f>
+        <v>1.3787096682450977</v>
+      </c>
+      <c r="L56" s="46">
+        <f>(SUM(I12:L12)/H9)/(SUM(E12:H12)/H9)</f>
+        <v>1.3683781688197341</v>
+      </c>
+      <c r="M56" s="46">
+        <f>(SUM(J12:M12)/I9)/(SUM(F12:I12)/I9)</f>
+        <v>1.3563465250965252</v>
+      </c>
+      <c r="N56" s="75">
+        <f>(SUM(K12:N12)/J9)/(SUM(G12:J12)/J9)</f>
+        <v>1.3710258805734432</v>
+      </c>
+      <c r="O56" s="46">
+        <f>(SUM(L12:O12)/K9)/(SUM(H12:K12)/K9)</f>
+        <v>1.3894147800526016</v>
+      </c>
+      <c r="P56" s="46">
+        <f>(SUM(M12:P12)/L9)/(SUM(I12:L12)/L9)</f>
+        <v>1.3932492028734966</v>
+      </c>
+      <c r="Q56" s="46">
+        <f>(SUM(N12:Q12)/M9)/(SUM(J12:M12)/M9)</f>
+        <v>1.3724938174960413</v>
+      </c>
+      <c r="R56" s="75">
+        <f>(SUM(O12:R12)/N9)/(SUM(K12:N12)/N9)</f>
+        <v>1.3262142049701862</v>
+      </c>
+      <c r="S56" s="46">
+        <f>(SUM(P12:S12)/O9)/(SUM(L12:O12)/O9)</f>
+        <v>1.2959089147403349</v>
+      </c>
+      <c r="T56" s="46">
+        <f>(SUM(Q12:T12)/P9)/(SUM(M12:P12)/P9)</f>
+        <v>1.2953467923359843</v>
+      </c>
+      <c r="U56" s="46">
+        <f>(SUM(R12:U12)/Q9)/(SUM(N12:Q12)/Q9)</f>
+        <v>1.3064850611378029</v>
+      </c>
+      <c r="V56" s="75">
+        <f>(SUM(S12:V12)/R9)/(SUM(O12:R12)/R9)</f>
+        <v>1.3091679696796927</v>
+      </c>
+      <c r="W56" s="46">
+        <f>(SUM(T12:W12)/S9)/(SUM(P12:S12)/S9)</f>
+        <v>1.2962162320695876</v>
+      </c>
+      <c r="X56" s="46">
+        <f>(SUM(U12:X12)/T9)/(SUM(Q12:T12)/T9)</f>
+        <v>1.2675313186407346</v>
+      </c>
+      <c r="Y56" s="46">
+        <f>(SUM(V12:Y12)/U9)/(SUM(R12:U12)/U9)</f>
+        <v>1.24001963742012</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/NFLX.xlsx
+++ b/NFLX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7BA598-9CA5-1947-8997-5FC24581E978}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CDA76E-3E71-914D-9B2D-5198988F442A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-54300" yWindow="-5940" windowWidth="28160" windowHeight="26400" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28180" yWindow="-5940" windowWidth="28160" windowHeight="26400" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -1484,7 +1484,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="39">
-        <f t="shared" ref="C20:H20" si="4">C18*C17</f>
+        <f t="shared" ref="C20:G20" si="4">C18*C17</f>
         <v>6779.0000000000009</v>
       </c>
       <c r="D20" s="39">
@@ -4365,7 +4365,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB20" sqref="AB20"/>
+      <selection pane="bottomRight" activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7663,87 +7663,87 @@
         <v>105</v>
       </c>
       <c r="F54" s="75">
-        <f>SUM(C13:F13)</f>
+        <f t="shared" ref="F54:Z54" si="71">SUM(C13:F13)</f>
         <v>6133.4000000000005</v>
       </c>
       <c r="G54" s="76">
-        <f>SUM(D13:G13)</f>
+        <f t="shared" si="71"/>
         <v>6546.5</v>
       </c>
       <c r="H54" s="75">
-        <f>SUM(E13:H13)</f>
+        <f t="shared" si="71"/>
         <v>7032.2999999999993</v>
       </c>
       <c r="I54" s="75">
-        <f>SUM(F13:I13)</f>
+        <f t="shared" si="71"/>
         <v>7609.3</v>
       </c>
       <c r="J54" s="75">
-        <f>SUM(G13:J13)</f>
+        <f t="shared" si="71"/>
         <v>8288</v>
       </c>
       <c r="K54" s="76">
-        <f>SUM(H13:K13)</f>
+        <f t="shared" si="71"/>
         <v>8991.2999999999993</v>
       </c>
       <c r="L54" s="75">
-        <f>SUM(I13:L13)</f>
+        <f t="shared" si="71"/>
         <v>9695.5</v>
       </c>
       <c r="M54" s="75">
-        <f>SUM(J13:M13)</f>
+        <f t="shared" si="71"/>
         <v>10412.400000000001</v>
       </c>
       <c r="N54" s="75">
-        <f>SUM(K13:N13)</f>
+        <f t="shared" si="71"/>
         <v>11241.400000000001</v>
       </c>
       <c r="O54" s="76">
-        <f>SUM(L13:O13)</f>
+        <f t="shared" si="71"/>
         <v>12327.305</v>
       </c>
       <c r="P54" s="75">
-        <f>SUM(M13:P13)</f>
+        <f t="shared" si="71"/>
         <v>13471.071</v>
       </c>
       <c r="Q54" s="75">
-        <f>SUM(N13:Q13)</f>
+        <f t="shared" si="71"/>
         <v>14507.067999999999</v>
       </c>
       <c r="R54" s="75">
-        <f>SUM(O13:R13)</f>
+        <f t="shared" si="71"/>
         <v>15428.752</v>
       </c>
       <c r="S54" s="76">
-        <f>SUM(P13:S13)</f>
+        <f t="shared" si="71"/>
         <v>16348.647000000001</v>
       </c>
       <c r="T54" s="75">
-        <f>SUM(Q13:T13)</f>
+        <f t="shared" si="71"/>
         <v>17457.280999999999</v>
       </c>
       <c r="U54" s="75">
-        <f>SUM(R13:U13)</f>
+        <f t="shared" si="71"/>
         <v>18791.684000000001</v>
       </c>
       <c r="V54" s="75">
-        <f>SUM(S13:V13)</f>
+        <f t="shared" si="71"/>
         <v>20157.434000000001</v>
       </c>
       <c r="W54" s="76">
-        <f>SUM(T13:W13)</f>
+        <f t="shared" si="71"/>
         <v>21403.125</v>
       </c>
       <c r="X54" s="75">
-        <f>SUM(U13:X13)</f>
+        <f t="shared" si="71"/>
         <v>22628.411</v>
       </c>
       <c r="Y54" s="75">
-        <f>SUM(V13:Y13)</f>
+        <f t="shared" si="71"/>
         <v>23819.047999999999</v>
       </c>
       <c r="Z54" s="75">
-        <f>SUM(W13:Z13)</f>
+        <f t="shared" si="71"/>
         <v>24995.614000000001</v>
       </c>
       <c r="AA54" s="74"/>
@@ -7755,71 +7755,71 @@
       </c>
       <c r="G55" s="80"/>
       <c r="J55" s="79">
-        <f>J54/F54-1</f>
+        <f t="shared" ref="J55:Z55" si="72">J54/F54-1</f>
         <v>0.35128965989500105</v>
       </c>
       <c r="K55" s="80">
-        <f>K54/G54-1</f>
+        <f t="shared" si="72"/>
         <v>0.37345146261361029</v>
       </c>
       <c r="L55" s="79">
-        <f>L54/H54-1</f>
+        <f t="shared" si="72"/>
         <v>0.37870966824509766</v>
       </c>
       <c r="M55" s="79">
-        <f>M54/I54-1</f>
+        <f t="shared" si="72"/>
         <v>0.36837816881973384</v>
       </c>
       <c r="N55" s="79">
-        <f>N54/J54-1</f>
+        <f t="shared" si="72"/>
         <v>0.3563465250965252</v>
       </c>
       <c r="O55" s="80">
-        <f>O54/K54-1</f>
+        <f t="shared" si="72"/>
         <v>0.37102588057344343</v>
       </c>
       <c r="P55" s="79">
-        <f>P54/L54-1</f>
+        <f t="shared" si="72"/>
         <v>0.38941478005260177</v>
       </c>
       <c r="Q55" s="79">
-        <f>Q54/M54-1</f>
+        <f t="shared" si="72"/>
         <v>0.39324920287349663</v>
       </c>
       <c r="R55" s="79">
-        <f>R54/N54-1</f>
+        <f t="shared" si="72"/>
         <v>0.37249381749604127</v>
       </c>
       <c r="S55" s="80">
-        <f>S54/O54-1</f>
+        <f t="shared" si="72"/>
         <v>0.32621420497018616</v>
       </c>
       <c r="T55" s="79">
-        <f>T54/P54-1</f>
+        <f t="shared" si="72"/>
         <v>0.29590891474033509</v>
       </c>
       <c r="U55" s="79">
-        <f>U54/Q54-1</f>
+        <f t="shared" si="72"/>
         <v>0.29534679233598427</v>
       </c>
       <c r="V55" s="79">
-        <f>V54/R54-1</f>
+        <f t="shared" si="72"/>
         <v>0.30648506113780294</v>
       </c>
       <c r="W55" s="80">
-        <f>W54/S54-1</f>
+        <f t="shared" si="72"/>
         <v>0.30916796967969273</v>
       </c>
       <c r="X55" s="79">
-        <f>X54/T54-1</f>
+        <f t="shared" si="72"/>
         <v>0.29621623206958758</v>
       </c>
       <c r="Y55" s="79">
-        <f>Y54/U54-1</f>
+        <f t="shared" si="72"/>
         <v>0.26753131864073487</v>
       </c>
       <c r="Z55" s="79">
-        <f>Z54/V54-1</f>
+        <f t="shared" si="72"/>
         <v>0.24001963742012</v>
       </c>
       <c r="AA55" s="80"/>
@@ -7836,79 +7836,79 @@
         <v>0.27941176470588225</v>
       </c>
       <c r="H57" s="17">
-        <f t="shared" ref="H57:R57" si="71">H10/D10-1</f>
+        <f t="shared" ref="H57:R57" si="73">H10/D10-1</f>
         <v>0.24285714285714288</v>
       </c>
       <c r="I57" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>0.21621621621621623</v>
       </c>
       <c r="J57" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>0.21249999999999991</v>
       </c>
       <c r="K57" s="18">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>0.18390804597701149</v>
       </c>
       <c r="L57" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>0.24137931034482762</v>
       </c>
       <c r="M57" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>0.25555555555555554</v>
       </c>
       <c r="N57" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>0.24742268041237114</v>
       </c>
       <c r="O57" s="18">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>0.24271844660194164</v>
       </c>
       <c r="P57" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>0.2314814814814814</v>
       </c>
       <c r="Q57" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>0.23893805309734506</v>
       </c>
       <c r="R57" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>0.14876033057851235</v>
       </c>
       <c r="S57" s="18">
-        <f t="shared" ref="S57:S58" si="72">S10/O10-1</f>
+        <f t="shared" ref="S57:S58" si="74">S10/O10-1</f>
         <v>0.1875</v>
       </c>
       <c r="T57" s="17">
-        <f t="shared" ref="T57:T58" si="73">T10/P10-1</f>
+        <f t="shared" ref="T57:T58" si="75">T10/P10-1</f>
         <v>0.14285714285714279</v>
       </c>
       <c r="U57" s="17">
-        <f t="shared" ref="U57:U58" si="74">U10/Q10-1</f>
+        <f t="shared" ref="U57:U58" si="76">U10/Q10-1</f>
         <v>0.12857142857142856</v>
       </c>
       <c r="V57" s="17">
-        <f t="shared" ref="V57:Z58" si="75">V10/R10-1</f>
+        <f t="shared" ref="V57:Z58" si="77">V10/R10-1</f>
         <v>0.20143884892086339</v>
       </c>
       <c r="W57" s="18">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>0.20394736842105265</v>
       </c>
       <c r="X57" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>0.26973684210526305</v>
       </c>
       <c r="Y57" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>0.23487974683544288</v>
       </c>
       <c r="Z57" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>0.21952095808383221</v>
       </c>
       <c r="AA57" s="18"/>
@@ -7926,79 +7926,79 @@
         <v>-2.7286610985670423E-2</v>
       </c>
       <c r="H58" s="17">
-        <f t="shared" ref="H58:R58" si="76">H11/D11-1</f>
+        <f t="shared" ref="H58:R58" si="78">H11/D11-1</f>
         <v>2.9890928304545428E-2</v>
       </c>
       <c r="I58" s="17">
+        <f t="shared" si="78"/>
+        <v>8.3240644856108936E-2</v>
+      </c>
+      <c r="J58" s="17">
+        <f t="shared" si="78"/>
+        <v>0.12067600638731935</v>
+      </c>
+      <c r="K58" s="18">
+        <f t="shared" si="78"/>
+        <v>0.13759021349701017</v>
+      </c>
+      <c r="L58" s="17">
+        <f t="shared" si="78"/>
+        <v>6.5846700341498643E-2</v>
+      </c>
+      <c r="M58" s="17">
+        <f t="shared" si="78"/>
+        <v>3.8111063879120666E-2</v>
+      </c>
+      <c r="N58" s="17">
+        <f t="shared" si="78"/>
+        <v>6.3030436467984563E-2</v>
+      </c>
+      <c r="O58" s="18">
+        <f t="shared" si="78"/>
+        <v>0.12954013369998107</v>
+      </c>
+      <c r="P58" s="17">
+        <f t="shared" si="78"/>
+        <v>0.13913070472828748</v>
+      </c>
+      <c r="Q58" s="17">
+        <f t="shared" si="78"/>
+        <v>8.1501660795650244E-2</v>
+      </c>
+      <c r="R58" s="17">
+        <f t="shared" si="78"/>
+        <v>0.10943425177256239</v>
+      </c>
+      <c r="S58" s="18">
+        <f t="shared" si="74"/>
+        <v>2.895113995248666E-2</v>
+      </c>
+      <c r="T58" s="17">
+        <f t="shared" si="75"/>
+        <v>0.10246412456779286</v>
+      </c>
+      <c r="U58" s="17">
         <f t="shared" si="76"/>
-        <v>8.3240644856108936E-2</v>
-      </c>
-      <c r="J58" s="17">
-        <f t="shared" si="76"/>
-        <v>0.12067600638731935</v>
-      </c>
-      <c r="K58" s="18">
-        <f t="shared" si="76"/>
-        <v>0.13759021349701017</v>
-      </c>
-      <c r="L58" s="17">
-        <f t="shared" si="76"/>
-        <v>6.5846700341498643E-2</v>
-      </c>
-      <c r="M58" s="17">
-        <f t="shared" si="76"/>
-        <v>3.8111063879120666E-2</v>
-      </c>
-      <c r="N58" s="17">
-        <f t="shared" si="76"/>
-        <v>6.3030436467984563E-2</v>
-      </c>
-      <c r="O58" s="18">
-        <f t="shared" si="76"/>
-        <v>0.12954013369998107</v>
-      </c>
-      <c r="P58" s="17">
-        <f t="shared" si="76"/>
-        <v>0.13913070472828748</v>
-      </c>
-      <c r="Q58" s="17">
-        <f t="shared" si="76"/>
-        <v>8.1501660795650244E-2</v>
-      </c>
-      <c r="R58" s="17">
-        <f t="shared" si="76"/>
-        <v>0.10943425177256239</v>
-      </c>
-      <c r="S58" s="18">
-        <f t="shared" si="72"/>
-        <v>2.895113995248666E-2</v>
-      </c>
-      <c r="T58" s="17">
-        <f t="shared" si="73"/>
-        <v>0.10246412456779286</v>
-      </c>
-      <c r="U58" s="17">
-        <f t="shared" si="74"/>
         <v>0.16204894926815538</v>
       </c>
       <c r="V58" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>8.6914568535541692E-2</v>
       </c>
       <c r="W58" s="18">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>5.940965238554452E-2</v>
       </c>
       <c r="X58" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1.6418153554374593E-2</v>
       </c>
       <c r="Y58" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-6.3775864692092732E-3</v>
       </c>
       <c r="Z58" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-3.5470291180358382E-3</v>
       </c>
       <c r="AA58" s="18"/>
@@ -8010,71 +8010,71 @@
       </c>
       <c r="G60" s="20"/>
       <c r="J60" s="19">
-        <f t="shared" ref="J60:Z60" si="77">(SUM(G13:J13)/F10)/(SUM(C13:F13)/F10)</f>
+        <f t="shared" ref="J60:Z60" si="79">(SUM(G13:J13)/F10)/(SUM(C13:F13)/F10)</f>
         <v>1.351289659895001</v>
       </c>
       <c r="K60" s="20">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1.3734514626136101</v>
       </c>
       <c r="L60" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1.3787096682450977</v>
       </c>
       <c r="M60" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1.3683781688197341</v>
       </c>
       <c r="N60" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1.3563465250965252</v>
       </c>
       <c r="O60" s="20">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1.3710258805734432</v>
       </c>
       <c r="P60" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1.3894147800526016</v>
       </c>
       <c r="Q60" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1.3932492028734966</v>
       </c>
       <c r="R60" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1.3724938174960413</v>
       </c>
       <c r="S60" s="20">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1.3262142049701862</v>
       </c>
       <c r="T60" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1.2959089147403349</v>
       </c>
       <c r="U60" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1.2953467923359843</v>
       </c>
       <c r="V60" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1.3064850611378029</v>
       </c>
       <c r="W60" s="20">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1.3091679696796927</v>
       </c>
       <c r="X60" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1.2962162320695876</v>
       </c>
       <c r="Y60" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1.2675313186407346</v>
       </c>
       <c r="Z60" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1.24001963742012</v>
       </c>
       <c r="AA60" s="20"/>
